--- a/VALOR/Importaciones por Lugar de Salida 2020 - Mensual - Actualización 31-09-2020 - Editado.xlsx
+++ b/VALOR/Importaciones por Lugar de Salida 2020 - Mensual - Actualización 31-09-2020 - Editado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aseba\Desktop\DATA Exterior\Importaciones\CIF\2020\Editado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-COMERCIO\VALOR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DCE9F6B-1E74-469D-9310-3B47A512C929}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76ABACB4-8A2F-46BC-93D3-2FD3B69F17D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="impoluging" sheetId="1" r:id="rId1"/>
@@ -335,7 +335,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -376,12 +376,108 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -401,6 +497,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -410,20 +507,348 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -434,6 +859,25 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CAC00E37-3CB8-4E52-9D0D-66AD09C2F625}" name="imp_salida_valor_2020" displayName="imp_salida_valor_2020" ref="A1:J56" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="13" tableBorderDxfId="14" totalsRowBorderDxfId="12">
+  <autoFilter ref="A1:J56" xr:uid="{54B30676-5E8F-456C-8186-644238D5CE2E}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{01EE0C79-8708-4C06-A9AA-34C87F48767B}" name="Lugar de Ingreso (Puerto-Aeropuerto-Avanzada)" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{3378E9AE-9E15-4C50-A775-7C4761405F54}" name="Enero - 2020" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{06D09FC7-EFFB-48C3-B658-DE650AC96A22}" name="Febrero - 2020" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{C2248265-8DF8-47A1-9021-CAA036056AB3}" name="Marzo - 2020" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{64DAF57B-DA62-48E7-8986-FF45498B8D3D}" name="Abril - 2020" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{096DC5BE-1B26-49A1-9EC5-7259C81CD024}" name="Mayo - 2020" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{4300FF5A-46E4-410B-BD74-9214AF944F2F}" name="Junio - 2020" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{81486027-EE5D-4CF2-9925-5CA7051C5276}" name="Julio - 2020" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{61CE193A-CF49-400C-BFBE-D38B041AFC91}" name="Agosto - 2020" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{07C67AA1-1D7E-4355-BA82-2B85D9134645}" name="Septiembre - 2020" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -720,36 +1164,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="12" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="13" t="s">
         <v>52</v>
       </c>
     </row>
@@ -784,7 +1228,7 @@
       <c r="K4" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="L4" s="12"/>
+      <c r="L4" s="13"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
@@ -2767,7 +3211,7 @@
   <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection sqref="A1:J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2775,1803 +3219,1806 @@
     <col min="1" max="1" width="44.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="9" width="15.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" style="1" customWidth="1"/>
     <col min="11" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15" t="s">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="19" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="17">
-        <v>0</v>
-      </c>
-      <c r="C2" s="17">
-        <v>0</v>
-      </c>
-      <c r="D2" s="17">
-        <v>0</v>
-      </c>
-      <c r="E2" s="17">
-        <v>0</v>
-      </c>
-      <c r="F2" s="17">
-        <v>0</v>
-      </c>
-      <c r="G2" s="17">
-        <v>0</v>
-      </c>
-      <c r="H2" s="17">
-        <v>0</v>
-      </c>
-      <c r="I2" s="17">
-        <v>0</v>
-      </c>
-      <c r="J2" s="17">
+      <c r="B2" s="11">
+        <v>0</v>
+      </c>
+      <c r="C2" s="11">
+        <v>0</v>
+      </c>
+      <c r="D2" s="11">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11">
+        <v>0</v>
+      </c>
+      <c r="F2" s="11">
+        <v>0</v>
+      </c>
+      <c r="G2" s="11">
+        <v>0</v>
+      </c>
+      <c r="H2" s="11">
+        <v>0</v>
+      </c>
+      <c r="I2" s="11">
+        <v>0</v>
+      </c>
+      <c r="J2" s="16">
         <v>27769.43</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="11">
         <v>737693083.79999959</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="11">
         <v>632171126.91000247</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="11">
         <v>751716185.54999709</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="11">
         <v>639741417.57999897</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="11">
         <v>650516523.05000234</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="11">
         <v>737168400.72000158</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="11">
         <v>781938383.55999649</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="11">
         <v>721612034.3399992</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="16">
         <v>808022573.25999308</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="17">
-        <v>0</v>
-      </c>
-      <c r="C4" s="17">
-        <v>0</v>
-      </c>
-      <c r="D4" s="17">
-        <v>0</v>
-      </c>
-      <c r="E4" s="17">
-        <v>0</v>
-      </c>
-      <c r="F4" s="17">
+      <c r="B4" s="11">
+        <v>0</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0</v>
+      </c>
+      <c r="F4" s="11">
         <v>12024.77</v>
       </c>
-      <c r="G4" s="17">
-        <v>0</v>
-      </c>
-      <c r="H4" s="17">
+      <c r="G4" s="11">
+        <v>0</v>
+      </c>
+      <c r="H4" s="11">
         <v>17951.2</v>
       </c>
-      <c r="I4" s="17">
-        <v>0</v>
-      </c>
-      <c r="J4" s="17">
+      <c r="I4" s="11">
+        <v>0</v>
+      </c>
+      <c r="J4" s="16">
         <v>78944.25</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="11">
         <v>7014911.7599999988</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="11">
         <v>8079657.29</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="11">
         <v>8343746.3400000036</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="11">
         <v>9682085.9099999983</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="11">
         <v>8933843.2899999972</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="11">
         <v>10747861.630000008</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="11">
         <v>9091850.1099999975</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="11">
         <v>7716348.8199999984</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="16">
         <v>8318064.950000003</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="11">
         <v>4654</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="11">
         <v>4253.59</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="11">
         <v>549.21</v>
       </c>
-      <c r="E6" s="17">
-        <v>0</v>
-      </c>
-      <c r="F6" s="17">
-        <v>0</v>
-      </c>
-      <c r="G6" s="17">
-        <v>0</v>
-      </c>
-      <c r="H6" s="17">
-        <v>0</v>
-      </c>
-      <c r="I6" s="17">
-        <v>0</v>
-      </c>
-      <c r="J6" s="17">
+      <c r="E6" s="11">
+        <v>0</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0</v>
+      </c>
+      <c r="J6" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="17">
-        <v>0</v>
-      </c>
-      <c r="C7" s="17">
+      <c r="B7" s="11">
+        <v>0</v>
+      </c>
+      <c r="C7" s="11">
         <v>20910.77</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="11">
         <v>3704.09</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="11">
         <v>9284.83</v>
       </c>
-      <c r="F7" s="17">
-        <v>0</v>
-      </c>
-      <c r="G7" s="17">
-        <v>0</v>
-      </c>
-      <c r="H7" s="17">
-        <v>0</v>
-      </c>
-      <c r="I7" s="17">
-        <v>0</v>
-      </c>
-      <c r="J7" s="17">
+      <c r="F7" s="11">
+        <v>0</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0</v>
+      </c>
+      <c r="J7" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="11">
         <v>3745.97</v>
       </c>
-      <c r="C8" s="17">
-        <v>0</v>
-      </c>
-      <c r="D8" s="17">
-        <v>0</v>
-      </c>
-      <c r="E8" s="17">
-        <v>0</v>
-      </c>
-      <c r="F8" s="17">
-        <v>0</v>
-      </c>
-      <c r="G8" s="17">
-        <v>0</v>
-      </c>
-      <c r="H8" s="17">
-        <v>0</v>
-      </c>
-      <c r="I8" s="17">
-        <v>0</v>
-      </c>
-      <c r="J8" s="17">
+      <c r="C8" s="11">
+        <v>0</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0</v>
+      </c>
+      <c r="H8" s="11">
+        <v>0</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0</v>
+      </c>
+      <c r="J8" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="11">
         <v>92250769.819999993</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="11">
         <v>54890106.260000028</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="11">
         <v>56226521.750000007</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="11">
         <v>47456812.069999993</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="11">
         <v>57129263.069999993</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="11">
         <v>54861025.739999942</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="11">
         <v>38538459.579999983</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="11">
         <v>38918805.190000005</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="16">
         <v>20050106.779999997</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="11">
         <v>6177626.4099999992</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="11">
         <v>4217690.4399999995</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="11">
         <v>3048335.4899999984</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="11">
         <v>5515871.8599999994</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="11">
         <v>2929669.28</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="11">
         <v>2640666.11</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="11">
         <v>3840873.1599999992</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="11">
         <v>4712001.9100000029</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10" s="16">
         <v>4674568.7299999995</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="11">
         <v>3887718.3200000003</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="11">
         <v>2326368.1700000004</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="11">
         <v>2879456.63</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="11">
         <v>2859274.33</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="11">
         <v>3859263.7399999998</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="11">
         <v>3936111.85</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="11">
         <v>3745462.62</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="11">
         <v>4442887.95</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="16">
         <v>5038752</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="11">
         <v>13305598.779999999</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="11">
         <v>16546892.5</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="11">
         <v>10396289.93</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="11">
         <v>15277754.99</v>
       </c>
-      <c r="F12" s="17">
-        <v>0</v>
-      </c>
-      <c r="G12" s="17">
+      <c r="F12" s="11">
+        <v>0</v>
+      </c>
+      <c r="G12" s="11">
         <v>13210118.42</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="11">
         <v>7539467.7800000003</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="11">
         <v>18131487.52</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="16">
         <v>3543389</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="11">
         <v>28226148.800000001</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="11">
         <v>7494522.5700000003</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="11">
         <v>11162184.100000001</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="11">
         <v>6558239.8799999999</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="11">
         <v>6551714.2199999997</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="11">
         <v>9950206.6900000013</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="11">
         <v>15333374.24</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="11">
         <v>6068204.21</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13" s="16">
         <v>15397879.98</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="11">
         <v>3541363.17</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="11">
         <v>3066005.4400000004</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="11">
         <v>2846075.31</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="11">
         <v>3183633.79</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="11">
         <v>3337111.44</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="11">
         <v>4831701.8399999989</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="11">
         <v>4186671.83</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="11">
         <v>4055879.73</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J14" s="16">
         <v>3455363.77</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="11">
         <v>3250.48</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="11">
         <v>11764.65</v>
       </c>
-      <c r="D15" s="17">
-        <v>0</v>
-      </c>
-      <c r="E15" s="17">
-        <v>0</v>
-      </c>
-      <c r="F15" s="17">
-        <v>0</v>
-      </c>
-      <c r="G15" s="17">
+      <c r="D15" s="11">
+        <v>0</v>
+      </c>
+      <c r="E15" s="11">
+        <v>0</v>
+      </c>
+      <c r="F15" s="11">
+        <v>0</v>
+      </c>
+      <c r="G15" s="11">
         <v>4600.2199999999993</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="11">
         <v>43501.06</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="11">
         <v>338859.9</v>
       </c>
-      <c r="J15" s="17">
+      <c r="J15" s="16">
         <v>38382.090000000004</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="11">
         <v>7100277.6500000004</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="11">
         <v>3339270.8600000003</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="11">
         <v>4054051.06</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="11">
         <v>1466353.8900000001</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="11">
         <v>491483.69</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="11">
         <v>2193682.85</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="11">
         <v>997660.63</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="11">
         <v>2491979.54</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J16" s="16">
         <v>3891117.07</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="11">
         <v>3876632.149999998</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="11">
         <v>3282494.2999999993</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="11">
         <v>2768619.8200000008</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="11">
         <v>3271611.2399999998</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="11">
         <v>3219750.0300000003</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="11">
         <v>4147202.5</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17" s="11">
         <v>2821573.2199999997</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="11">
         <v>3032024.56</v>
       </c>
-      <c r="J17" s="17">
+      <c r="J17" s="16">
         <v>2720648.09</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="17">
-        <v>0</v>
-      </c>
-      <c r="C18" s="17">
-        <v>0</v>
-      </c>
-      <c r="D18" s="17">
-        <v>0</v>
-      </c>
-      <c r="E18" s="17">
-        <v>0</v>
-      </c>
-      <c r="F18" s="17">
-        <v>0</v>
-      </c>
-      <c r="G18" s="17">
-        <v>0</v>
-      </c>
-      <c r="H18" s="17">
+      <c r="B18" s="11">
+        <v>0</v>
+      </c>
+      <c r="C18" s="11">
+        <v>0</v>
+      </c>
+      <c r="D18" s="11">
+        <v>0</v>
+      </c>
+      <c r="E18" s="11">
+        <v>0</v>
+      </c>
+      <c r="F18" s="11">
+        <v>0</v>
+      </c>
+      <c r="G18" s="11">
+        <v>0</v>
+      </c>
+      <c r="H18" s="11">
         <v>16230.9</v>
       </c>
-      <c r="I18" s="17">
-        <v>0</v>
-      </c>
-      <c r="J18" s="17">
+      <c r="I18" s="11">
+        <v>0</v>
+      </c>
+      <c r="J18" s="16">
         <v>27096.5</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="11">
         <v>8670353.9399999976</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="11">
         <v>6149331.8499999959</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="11">
         <v>8306615.4400000004</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="11">
         <v>9201678.7400000002</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="11">
         <v>8442596.7599999998</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="11">
         <v>13384704.289999994</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19" s="11">
         <v>10544777.689999996</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="11">
         <v>14103146.880000003</v>
       </c>
-      <c r="J19" s="17">
+      <c r="J19" s="16">
         <v>13378643.490000011</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="17">
+      <c r="B20" s="11">
         <v>120931.18</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="11">
         <v>14023401.789999999</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="11">
         <v>1152831.44</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="11">
         <v>6737076.7199999997</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="11">
         <v>1471140</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="11">
         <v>2848754.24</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H20" s="11">
         <v>7421417.9199999999</v>
       </c>
-      <c r="I20" s="17">
+      <c r="I20" s="11">
         <v>2143259.56</v>
       </c>
-      <c r="J20" s="17">
+      <c r="J20" s="16">
         <v>16441214.359999999</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="11">
         <v>134486894.26000014</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="11">
         <v>138868634.53000003</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="11">
         <v>93753992.390000015</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="11">
         <v>94032091.410000011</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="11">
         <v>159689267.87</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G21" s="11">
         <v>128794685.02000001</v>
       </c>
-      <c r="H21" s="17">
+      <c r="H21" s="11">
         <v>106862688.17000002</v>
       </c>
-      <c r="I21" s="17">
+      <c r="I21" s="11">
         <v>89078501.48999998</v>
       </c>
-      <c r="J21" s="17">
+      <c r="J21" s="16">
         <v>66242742.579999939</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="17">
-        <v>0</v>
-      </c>
-      <c r="C22" s="17">
-        <v>0</v>
-      </c>
-      <c r="D22" s="17">
-        <v>0</v>
-      </c>
-      <c r="E22" s="17">
-        <v>0</v>
-      </c>
-      <c r="F22" s="17">
-        <v>0</v>
-      </c>
-      <c r="G22" s="17">
-        <v>0</v>
-      </c>
-      <c r="H22" s="17">
-        <v>0</v>
-      </c>
-      <c r="I22" s="17">
-        <v>0</v>
-      </c>
-      <c r="J22" s="17">
+      <c r="B22" s="11">
+        <v>0</v>
+      </c>
+      <c r="C22" s="11">
+        <v>0</v>
+      </c>
+      <c r="D22" s="11">
+        <v>0</v>
+      </c>
+      <c r="E22" s="11">
+        <v>0</v>
+      </c>
+      <c r="F22" s="11">
+        <v>0</v>
+      </c>
+      <c r="G22" s="11">
+        <v>0</v>
+      </c>
+      <c r="H22" s="11">
+        <v>0</v>
+      </c>
+      <c r="I22" s="11">
+        <v>0</v>
+      </c>
+      <c r="J22" s="16">
         <v>1126.1200000000001</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="17">
+      <c r="B23" s="11">
         <v>274988557.93999952</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="11">
         <v>277925932.11999971</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="11">
         <v>293044275.81000048</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="11">
         <v>263627916.76000038</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="11">
         <v>276948467.18999928</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G23" s="11">
         <v>263487969.14999983</v>
       </c>
-      <c r="H23" s="17">
+      <c r="H23" s="11">
         <v>296191736.62000042</v>
       </c>
-      <c r="I23" s="17">
+      <c r="I23" s="11">
         <v>336923247.44999993</v>
       </c>
-      <c r="J23" s="17">
+      <c r="J23" s="16">
         <v>342846264.98999953</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="17">
-        <v>0</v>
-      </c>
-      <c r="C24" s="17">
-        <v>0</v>
-      </c>
-      <c r="D24" s="17">
-        <v>0</v>
-      </c>
-      <c r="E24" s="17">
-        <v>0</v>
-      </c>
-      <c r="F24" s="17">
-        <v>0</v>
-      </c>
-      <c r="G24" s="17">
-        <v>0</v>
-      </c>
-      <c r="H24" s="17">
-        <v>0</v>
-      </c>
-      <c r="I24" s="17">
-        <v>0</v>
-      </c>
-      <c r="J24" s="17">
+      <c r="B24" s="11">
+        <v>0</v>
+      </c>
+      <c r="C24" s="11">
+        <v>0</v>
+      </c>
+      <c r="D24" s="11">
+        <v>0</v>
+      </c>
+      <c r="E24" s="11">
+        <v>0</v>
+      </c>
+      <c r="F24" s="11">
+        <v>0</v>
+      </c>
+      <c r="G24" s="11">
+        <v>0</v>
+      </c>
+      <c r="H24" s="11">
+        <v>0</v>
+      </c>
+      <c r="I24" s="11">
+        <v>0</v>
+      </c>
+      <c r="J24" s="16">
         <v>62441.21</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="17">
-        <v>0</v>
-      </c>
-      <c r="C25" s="17">
-        <v>0</v>
-      </c>
-      <c r="D25" s="17">
-        <v>0</v>
-      </c>
-      <c r="E25" s="17">
-        <v>0</v>
-      </c>
-      <c r="F25" s="17">
-        <v>0</v>
-      </c>
-      <c r="G25" s="17">
-        <v>0</v>
-      </c>
-      <c r="H25" s="17">
-        <v>0</v>
-      </c>
-      <c r="I25" s="17">
+      <c r="B25" s="11">
+        <v>0</v>
+      </c>
+      <c r="C25" s="11">
+        <v>0</v>
+      </c>
+      <c r="D25" s="11">
+        <v>0</v>
+      </c>
+      <c r="E25" s="11">
+        <v>0</v>
+      </c>
+      <c r="F25" s="11">
+        <v>0</v>
+      </c>
+      <c r="G25" s="11">
+        <v>0</v>
+      </c>
+      <c r="H25" s="11">
+        <v>0</v>
+      </c>
+      <c r="I25" s="11">
         <v>458.45</v>
       </c>
-      <c r="J25" s="17">
+      <c r="J25" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="17">
+      <c r="B26" s="11">
         <v>4281166.96</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C26" s="11">
         <v>3747207.29</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="11">
         <v>6809685.3600000003</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="11">
         <v>1448177.47</v>
       </c>
-      <c r="F26" s="17">
-        <v>0</v>
-      </c>
-      <c r="G26" s="17">
-        <v>0</v>
-      </c>
-      <c r="H26" s="17">
-        <v>0</v>
-      </c>
-      <c r="I26" s="17">
-        <v>0</v>
-      </c>
-      <c r="J26" s="17">
+      <c r="F26" s="11">
+        <v>0</v>
+      </c>
+      <c r="G26" s="11">
+        <v>0</v>
+      </c>
+      <c r="H26" s="11">
+        <v>0</v>
+      </c>
+      <c r="I26" s="11">
+        <v>0</v>
+      </c>
+      <c r="J26" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="17">
+      <c r="B27" s="11">
         <v>4012240.79</v>
       </c>
-      <c r="C27" s="17">
-        <v>0</v>
-      </c>
-      <c r="D27" s="17">
+      <c r="C27" s="11">
+        <v>0</v>
+      </c>
+      <c r="D27" s="11">
         <v>1408181.43</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="11">
         <v>1328326.5900000001</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F27" s="11">
         <v>924610.73</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G27" s="11">
         <v>2127763.9900000002</v>
       </c>
-      <c r="H27" s="17">
+      <c r="H27" s="11">
         <v>1043294.4099999999</v>
       </c>
-      <c r="I27" s="17">
+      <c r="I27" s="11">
         <v>1074133.02</v>
       </c>
-      <c r="J27" s="17">
+      <c r="J27" s="16">
         <v>1588430.42</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="17">
+      <c r="B28" s="11">
         <v>9815225.3399999999</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C28" s="11">
         <v>13881123.27</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D28" s="11">
         <v>22495029.68</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E28" s="11">
         <v>28628793.940000001</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F28" s="11">
         <v>23342961.530000001</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G28" s="11">
         <v>31473246.859999999</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H28" s="11">
         <v>46542036.569999993</v>
       </c>
-      <c r="I28" s="17">
+      <c r="I28" s="11">
         <v>33808066.039999999</v>
       </c>
-      <c r="J28" s="17">
+      <c r="J28" s="16">
         <v>34386013.869999997</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="17">
+      <c r="B29" s="11">
         <v>189058.33</v>
       </c>
-      <c r="C29" s="17">
+      <c r="C29" s="11">
         <v>91661.73</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D29" s="11">
         <v>100353</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="11">
         <v>79883.25</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F29" s="11">
         <v>84044.9</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G29" s="11">
         <v>119563.92</v>
       </c>
-      <c r="H29" s="17">
+      <c r="H29" s="11">
         <v>56110.11</v>
       </c>
-      <c r="I29" s="17">
+      <c r="I29" s="11">
         <v>100268.26</v>
       </c>
-      <c r="J29" s="17">
+      <c r="J29" s="16">
         <v>171603.65000000002</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="17">
-        <v>0</v>
-      </c>
-      <c r="C30" s="17">
-        <v>0</v>
-      </c>
-      <c r="D30" s="17">
-        <v>0</v>
-      </c>
-      <c r="E30" s="17">
-        <v>0</v>
-      </c>
-      <c r="F30" s="17">
-        <v>0</v>
-      </c>
-      <c r="G30" s="17">
-        <v>0</v>
-      </c>
-      <c r="H30" s="17">
+      <c r="B30" s="11">
+        <v>0</v>
+      </c>
+      <c r="C30" s="11">
+        <v>0</v>
+      </c>
+      <c r="D30" s="11">
+        <v>0</v>
+      </c>
+      <c r="E30" s="11">
+        <v>0</v>
+      </c>
+      <c r="F30" s="11">
+        <v>0</v>
+      </c>
+      <c r="G30" s="11">
+        <v>0</v>
+      </c>
+      <c r="H30" s="11">
         <v>1844.45</v>
       </c>
-      <c r="I30" s="17">
-        <v>0</v>
-      </c>
-      <c r="J30" s="17">
+      <c r="I30" s="11">
+        <v>0</v>
+      </c>
+      <c r="J30" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="17">
+      <c r="B31" s="11">
         <v>71527934.799999863</v>
       </c>
-      <c r="C31" s="17">
+      <c r="C31" s="11">
         <v>81447629.030000091</v>
       </c>
-      <c r="D31" s="17">
+      <c r="D31" s="11">
         <v>84391058.340000018</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31" s="11">
         <v>133785484.37999992</v>
       </c>
-      <c r="F31" s="17">
+      <c r="F31" s="11">
         <v>68062183.250000075</v>
       </c>
-      <c r="G31" s="17">
+      <c r="G31" s="11">
         <v>50033378.120000027</v>
       </c>
-      <c r="H31" s="17">
+      <c r="H31" s="11">
         <v>72271448.740000054</v>
       </c>
-      <c r="I31" s="17">
+      <c r="I31" s="11">
         <v>69184415.359999955</v>
       </c>
-      <c r="J31" s="17">
+      <c r="J31" s="16">
         <v>53442792.079999998</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="17">
+      <c r="B32" s="11">
         <v>20668.809999999998</v>
       </c>
-      <c r="C32" s="17">
+      <c r="C32" s="11">
         <v>6450.01</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D32" s="11">
         <v>13805.759999999998</v>
       </c>
-      <c r="E32" s="17">
-        <v>0</v>
-      </c>
-      <c r="F32" s="17">
-        <v>0</v>
-      </c>
-      <c r="G32" s="17">
-        <v>0</v>
-      </c>
-      <c r="H32" s="17">
-        <v>0</v>
-      </c>
-      <c r="I32" s="17">
-        <v>0</v>
-      </c>
-      <c r="J32" s="17">
+      <c r="E32" s="11">
+        <v>0</v>
+      </c>
+      <c r="F32" s="11">
+        <v>0</v>
+      </c>
+      <c r="G32" s="11">
+        <v>0</v>
+      </c>
+      <c r="H32" s="11">
+        <v>0</v>
+      </c>
+      <c r="I32" s="11">
+        <v>0</v>
+      </c>
+      <c r="J32" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="17">
+      <c r="B33" s="11">
         <v>2999488.0999999996</v>
       </c>
-      <c r="C33" s="17">
+      <c r="C33" s="11">
         <v>2588874.9600000004</v>
       </c>
-      <c r="D33" s="17">
+      <c r="D33" s="11">
         <v>4679899.6599999992</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E33" s="11">
         <v>4583831.1700000018</v>
       </c>
-      <c r="F33" s="17">
+      <c r="F33" s="11">
         <v>3057290.06</v>
       </c>
-      <c r="G33" s="17">
+      <c r="G33" s="11">
         <v>3095730.120000001</v>
       </c>
-      <c r="H33" s="17">
+      <c r="H33" s="11">
         <v>8136699.8299999982</v>
       </c>
-      <c r="I33" s="17">
+      <c r="I33" s="11">
         <v>3358418.0000000005</v>
       </c>
-      <c r="J33" s="17">
+      <c r="J33" s="16">
         <v>4178851.899999999</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B34" s="17">
+      <c r="B34" s="11">
         <v>47804260.070000023</v>
       </c>
-      <c r="C34" s="17">
+      <c r="C34" s="11">
         <v>51828346.340000071</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D34" s="11">
         <v>21724316.190000001</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E34" s="11">
         <v>144141314.44999993</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F34" s="11">
         <v>43003984.940000005</v>
       </c>
-      <c r="G34" s="17">
+      <c r="G34" s="11">
         <v>64999714.869999968</v>
       </c>
-      <c r="H34" s="17">
+      <c r="H34" s="11">
         <v>112690895.99000008</v>
       </c>
-      <c r="I34" s="17">
+      <c r="I34" s="11">
         <v>108821502.25000003</v>
       </c>
-      <c r="J34" s="17">
+      <c r="J34" s="16">
         <v>64907397.840000048</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="17">
-        <v>0</v>
-      </c>
-      <c r="C35" s="17">
-        <v>0</v>
-      </c>
-      <c r="D35" s="17">
-        <v>0</v>
-      </c>
-      <c r="E35" s="17">
-        <v>0</v>
-      </c>
-      <c r="F35" s="17">
-        <v>0</v>
-      </c>
-      <c r="G35" s="17">
-        <v>0</v>
-      </c>
-      <c r="H35" s="17">
-        <v>0</v>
-      </c>
-      <c r="I35" s="17">
-        <v>0</v>
-      </c>
-      <c r="J35" s="17">
+      <c r="B35" s="11">
+        <v>0</v>
+      </c>
+      <c r="C35" s="11">
+        <v>0</v>
+      </c>
+      <c r="D35" s="11">
+        <v>0</v>
+      </c>
+      <c r="E35" s="11">
+        <v>0</v>
+      </c>
+      <c r="F35" s="11">
+        <v>0</v>
+      </c>
+      <c r="G35" s="11">
+        <v>0</v>
+      </c>
+      <c r="H35" s="11">
+        <v>0</v>
+      </c>
+      <c r="I35" s="11">
+        <v>0</v>
+      </c>
+      <c r="J35" s="16">
         <v>20387.09</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="17">
+      <c r="B36" s="11">
         <v>194966597.73000002</v>
       </c>
-      <c r="C36" s="17">
+      <c r="C36" s="11">
         <v>113821950.76000002</v>
       </c>
-      <c r="D36" s="17">
+      <c r="D36" s="11">
         <v>149321999.75999999</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E36" s="11">
         <v>119881201.71999998</v>
       </c>
-      <c r="F36" s="17">
+      <c r="F36" s="11">
         <v>93608218.770000011</v>
       </c>
-      <c r="G36" s="17">
+      <c r="G36" s="11">
         <v>121178409.16</v>
       </c>
-      <c r="H36" s="17">
+      <c r="H36" s="11">
         <v>121195909.69000001</v>
       </c>
-      <c r="I36" s="17">
+      <c r="I36" s="11">
         <v>91777427.569999993</v>
       </c>
-      <c r="J36" s="17">
+      <c r="J36" s="16">
         <v>95758392.569999993</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="17">
+      <c r="B37" s="11">
         <v>678622.85</v>
       </c>
-      <c r="C37" s="17">
+      <c r="C37" s="11">
         <v>226011.24</v>
       </c>
-      <c r="D37" s="17">
+      <c r="D37" s="11">
         <v>236237.91</v>
       </c>
-      <c r="E37" s="17">
+      <c r="E37" s="11">
         <v>95330.9</v>
       </c>
-      <c r="F37" s="17">
+      <c r="F37" s="11">
         <v>324703.09000000003</v>
       </c>
-      <c r="G37" s="17">
+      <c r="G37" s="11">
         <v>62602.17</v>
       </c>
-      <c r="H37" s="17">
+      <c r="H37" s="11">
         <v>4675.26</v>
       </c>
-      <c r="I37" s="17">
-        <v>0</v>
-      </c>
-      <c r="J37" s="17">
+      <c r="I37" s="11">
+        <v>0</v>
+      </c>
+      <c r="J37" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="17">
-        <v>0</v>
-      </c>
-      <c r="C38" s="17">
-        <v>0</v>
-      </c>
-      <c r="D38" s="17">
+      <c r="B38" s="11">
+        <v>0</v>
+      </c>
+      <c r="C38" s="11">
+        <v>0</v>
+      </c>
+      <c r="D38" s="11">
         <v>7413.27</v>
       </c>
-      <c r="E38" s="17">
-        <v>0</v>
-      </c>
-      <c r="F38" s="17">
-        <v>0</v>
-      </c>
-      <c r="G38" s="17">
-        <v>0</v>
-      </c>
-      <c r="H38" s="17">
-        <v>0</v>
-      </c>
-      <c r="I38" s="17">
-        <v>0</v>
-      </c>
-      <c r="J38" s="17">
+      <c r="E38" s="11">
+        <v>0</v>
+      </c>
+      <c r="F38" s="11">
+        <v>0</v>
+      </c>
+      <c r="G38" s="11">
+        <v>0</v>
+      </c>
+      <c r="H38" s="11">
+        <v>0</v>
+      </c>
+      <c r="I38" s="11">
+        <v>0</v>
+      </c>
+      <c r="J38" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B39" s="17">
+      <c r="B39" s="11">
         <v>3723807.69</v>
       </c>
-      <c r="C39" s="17">
+      <c r="C39" s="11">
         <v>3647642.1999999997</v>
       </c>
-      <c r="D39" s="17">
+      <c r="D39" s="11">
         <v>2092294.73</v>
       </c>
-      <c r="E39" s="17">
-        <v>0</v>
-      </c>
-      <c r="F39" s="17">
+      <c r="E39" s="11">
+        <v>0</v>
+      </c>
+      <c r="F39" s="11">
         <v>2457956.84</v>
       </c>
-      <c r="G39" s="17">
+      <c r="G39" s="11">
         <v>1613373.8</v>
       </c>
-      <c r="H39" s="17">
+      <c r="H39" s="11">
         <v>3131555.1</v>
       </c>
-      <c r="I39" s="17">
+      <c r="I39" s="11">
         <v>3633059.43</v>
       </c>
-      <c r="J39" s="17">
+      <c r="J39" s="16">
         <v>6013986.6100000003</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="17">
+      <c r="B40" s="11">
         <v>63616.35</v>
       </c>
-      <c r="C40" s="17">
+      <c r="C40" s="11">
         <v>92580.29</v>
       </c>
-      <c r="D40" s="17">
+      <c r="D40" s="11">
         <v>275321</v>
       </c>
-      <c r="E40" s="17">
+      <c r="E40" s="11">
         <v>124826.9</v>
       </c>
-      <c r="F40" s="17">
+      <c r="F40" s="11">
         <v>92529.84</v>
       </c>
-      <c r="G40" s="17">
+      <c r="G40" s="11">
         <v>153961.97</v>
       </c>
-      <c r="H40" s="17">
-        <v>0</v>
-      </c>
-      <c r="I40" s="17">
-        <v>0</v>
-      </c>
-      <c r="J40" s="17">
+      <c r="H40" s="11">
+        <v>0</v>
+      </c>
+      <c r="I40" s="11">
+        <v>0</v>
+      </c>
+      <c r="J40" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="17">
+      <c r="B41" s="11">
         <v>2835712.52</v>
       </c>
-      <c r="C41" s="17">
+      <c r="C41" s="11">
         <v>4590174.6100000003</v>
       </c>
-      <c r="D41" s="17">
+      <c r="D41" s="11">
         <v>3136314.94</v>
       </c>
-      <c r="E41" s="17">
+      <c r="E41" s="11">
         <v>7967947.9199999999</v>
       </c>
-      <c r="F41" s="17">
+      <c r="F41" s="11">
         <v>8251447.4999999991</v>
       </c>
-      <c r="G41" s="17">
+      <c r="G41" s="11">
         <v>7719706.9600000009</v>
       </c>
-      <c r="H41" s="17">
+      <c r="H41" s="11">
         <v>13463151.169999998</v>
       </c>
-      <c r="I41" s="17">
+      <c r="I41" s="11">
         <v>13381447.52</v>
       </c>
-      <c r="J41" s="17">
+      <c r="J41" s="16">
         <v>19959853.379999999</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B42" s="17">
+      <c r="B42" s="11">
         <v>9003325.5700000003</v>
       </c>
-      <c r="C42" s="17">
+      <c r="C42" s="11">
         <v>8080022.3200000012</v>
       </c>
-      <c r="D42" s="17">
+      <c r="D42" s="11">
         <v>6799068.2999999998</v>
       </c>
-      <c r="E42" s="17">
+      <c r="E42" s="11">
         <v>5557903.330000001</v>
       </c>
-      <c r="F42" s="17">
+      <c r="F42" s="11">
         <v>5962190.1900000013</v>
       </c>
-      <c r="G42" s="17">
+      <c r="G42" s="11">
         <v>12760586.609999998</v>
       </c>
-      <c r="H42" s="17">
+      <c r="H42" s="11">
         <v>9558793.5000000037</v>
       </c>
-      <c r="I42" s="17">
+      <c r="I42" s="11">
         <v>5054197.83</v>
       </c>
-      <c r="J42" s="17">
+      <c r="J42" s="16">
         <v>6099110.629999999</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="17">
+      <c r="B43" s="11">
         <v>169943715.16000003</v>
       </c>
-      <c r="C43" s="17">
+      <c r="C43" s="11">
         <v>141590621.7100001</v>
       </c>
-      <c r="D43" s="17">
+      <c r="D43" s="11">
         <v>166109556.38000014</v>
       </c>
-      <c r="E43" s="17">
+      <c r="E43" s="11">
         <v>189243146.9000001</v>
       </c>
-      <c r="F43" s="17">
+      <c r="F43" s="11">
         <v>175035335.46000007</v>
       </c>
-      <c r="G43" s="17">
+      <c r="G43" s="11">
         <v>205148046.11999995</v>
       </c>
-      <c r="H43" s="17">
+      <c r="H43" s="11">
         <v>206083294.59</v>
       </c>
-      <c r="I43" s="17">
+      <c r="I43" s="11">
         <v>269454569.37000018</v>
       </c>
-      <c r="J43" s="17">
+      <c r="J43" s="16">
         <v>338838054.25999981</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="17">
+      <c r="B44" s="11">
         <v>28229545.309999999</v>
       </c>
-      <c r="C44" s="17">
+      <c r="C44" s="11">
         <v>43495601.260000005</v>
       </c>
-      <c r="D44" s="17">
+      <c r="D44" s="11">
         <v>41087720.899999999</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E44" s="11">
         <v>13278699.729999999</v>
       </c>
-      <c r="F44" s="17">
+      <c r="F44" s="11">
         <v>21511609.739999998</v>
       </c>
-      <c r="G44" s="17">
+      <c r="G44" s="11">
         <v>20762237.869999997</v>
       </c>
-      <c r="H44" s="17">
+      <c r="H44" s="11">
         <v>23245495.820000004</v>
       </c>
-      <c r="I44" s="17">
+      <c r="I44" s="11">
         <v>34112605.890000001</v>
       </c>
-      <c r="J44" s="17">
+      <c r="J44" s="16">
         <v>51419843.259999998</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="17">
+      <c r="B45" s="11">
         <v>4338128.6100000003</v>
       </c>
-      <c r="C45" s="17">
+      <c r="C45" s="11">
         <v>6624361.8500000006</v>
       </c>
-      <c r="D45" s="17">
+      <c r="D45" s="11">
         <v>2448603.3600000003</v>
       </c>
-      <c r="E45" s="17">
+      <c r="E45" s="11">
         <v>6237955.7999999989</v>
       </c>
-      <c r="F45" s="17">
+      <c r="F45" s="11">
         <v>2771943.15</v>
       </c>
-      <c r="G45" s="17">
+      <c r="G45" s="11">
         <v>286049.67000000004</v>
       </c>
-      <c r="H45" s="17">
+      <c r="H45" s="11">
         <v>1499654.4699999997</v>
       </c>
-      <c r="I45" s="17">
+      <c r="I45" s="11">
         <v>2132009.9899999998</v>
       </c>
-      <c r="J45" s="17">
+      <c r="J45" s="16">
         <v>2964444.82</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="17">
+      <c r="B46" s="11">
         <v>322703360.81</v>
       </c>
-      <c r="C46" s="17">
+      <c r="C46" s="11">
         <v>181749311.02999997</v>
       </c>
-      <c r="D46" s="17">
+      <c r="D46" s="11">
         <v>296423384.68000001</v>
       </c>
-      <c r="E46" s="17">
+      <c r="E46" s="11">
         <v>134561007.60999998</v>
       </c>
-      <c r="F46" s="17">
+      <c r="F46" s="11">
         <v>103737531.57000002</v>
       </c>
-      <c r="G46" s="17">
+      <c r="G46" s="11">
         <v>174328062.76000002</v>
       </c>
-      <c r="H46" s="17">
+      <c r="H46" s="11">
         <v>273866350.85000002</v>
       </c>
-      <c r="I46" s="17">
+      <c r="I46" s="11">
         <v>118291677.81999999</v>
       </c>
-      <c r="J46" s="17">
+      <c r="J46" s="16">
         <v>171493388.14000002</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B47" s="17">
+      <c r="B47" s="11">
         <v>1927838258.6100006</v>
       </c>
-      <c r="C47" s="17">
+      <c r="C47" s="11">
         <v>1600369289.0899973</v>
       </c>
-      <c r="D47" s="17">
+      <c r="D47" s="11">
         <v>1565249976.7899921</v>
       </c>
-      <c r="E47" s="17">
+      <c r="E47" s="11">
         <v>1680619738.5600052</v>
       </c>
-      <c r="F47" s="17">
+      <c r="F47" s="11">
         <v>1535716478.970001</v>
       </c>
-      <c r="G47" s="17">
+      <c r="G47" s="11">
         <v>1418390899.9400086</v>
       </c>
-      <c r="H47" s="17">
+      <c r="H47" s="11">
         <v>1745453187.8299952</v>
       </c>
-      <c r="I47" s="17">
+      <c r="I47" s="11">
         <v>1515152380.8699996</v>
       </c>
-      <c r="J47" s="17">
+      <c r="J47" s="16">
         <v>1497897803.5600114</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B48" s="17">
+      <c r="B48" s="11">
         <v>833612.75</v>
       </c>
-      <c r="C48" s="17">
-        <v>0</v>
-      </c>
-      <c r="D48" s="17">
-        <v>0</v>
-      </c>
-      <c r="E48" s="17">
-        <v>0</v>
-      </c>
-      <c r="F48" s="17">
-        <v>0</v>
-      </c>
-      <c r="G48" s="17">
-        <v>0</v>
-      </c>
-      <c r="H48" s="17">
-        <v>0</v>
-      </c>
-      <c r="I48" s="17">
-        <v>0</v>
-      </c>
-      <c r="J48" s="17">
+      <c r="C48" s="11">
+        <v>0</v>
+      </c>
+      <c r="D48" s="11">
+        <v>0</v>
+      </c>
+      <c r="E48" s="11">
+        <v>0</v>
+      </c>
+      <c r="F48" s="11">
+        <v>0</v>
+      </c>
+      <c r="G48" s="11">
+        <v>0</v>
+      </c>
+      <c r="H48" s="11">
+        <v>0</v>
+      </c>
+      <c r="I48" s="11">
+        <v>0</v>
+      </c>
+      <c r="J48" s="16">
         <v>4549.82</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="17">
-        <v>0</v>
-      </c>
-      <c r="C49" s="17">
-        <v>0</v>
-      </c>
-      <c r="D49" s="17">
-        <v>0</v>
-      </c>
-      <c r="E49" s="17">
-        <v>0</v>
-      </c>
-      <c r="F49" s="17">
-        <v>0</v>
-      </c>
-      <c r="G49" s="17">
-        <v>0</v>
-      </c>
-      <c r="H49" s="17">
+      <c r="B49" s="11">
+        <v>0</v>
+      </c>
+      <c r="C49" s="11">
+        <v>0</v>
+      </c>
+      <c r="D49" s="11">
+        <v>0</v>
+      </c>
+      <c r="E49" s="11">
+        <v>0</v>
+      </c>
+      <c r="F49" s="11">
+        <v>0</v>
+      </c>
+      <c r="G49" s="11">
+        <v>0</v>
+      </c>
+      <c r="H49" s="11">
         <v>141194.85999999999</v>
       </c>
-      <c r="I49" s="17">
-        <v>0</v>
-      </c>
-      <c r="J49" s="17">
+      <c r="I49" s="11">
+        <v>0</v>
+      </c>
+      <c r="J49" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B50" s="17">
+      <c r="B50" s="11">
         <v>15139.07</v>
       </c>
-      <c r="C50" s="17">
+      <c r="C50" s="11">
         <v>14707.31</v>
       </c>
-      <c r="D50" s="17">
-        <v>0</v>
-      </c>
-      <c r="E50" s="17">
-        <v>0</v>
-      </c>
-      <c r="F50" s="17">
-        <v>0</v>
-      </c>
-      <c r="G50" s="17">
-        <v>0</v>
-      </c>
-      <c r="H50" s="17">
-        <v>0</v>
-      </c>
-      <c r="I50" s="17">
-        <v>0</v>
-      </c>
-      <c r="J50" s="17">
+      <c r="D50" s="11">
+        <v>0</v>
+      </c>
+      <c r="E50" s="11">
+        <v>0</v>
+      </c>
+      <c r="F50" s="11">
+        <v>0</v>
+      </c>
+      <c r="G50" s="11">
+        <v>0</v>
+      </c>
+      <c r="H50" s="11">
+        <v>0</v>
+      </c>
+      <c r="I50" s="11">
+        <v>0</v>
+      </c>
+      <c r="J50" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="16" t="s">
+      <c r="A51" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B51" s="17">
+      <c r="B51" s="11">
         <v>225885648.25999993</v>
       </c>
-      <c r="C51" s="17">
+      <c r="C51" s="11">
         <v>162081179.01000011</v>
       </c>
-      <c r="D51" s="17">
+      <c r="D51" s="11">
         <v>164267289.27000007</v>
       </c>
-      <c r="E51" s="17">
+      <c r="E51" s="11">
         <v>111484406.99000002</v>
       </c>
-      <c r="F51" s="17">
+      <c r="F51" s="11">
         <v>101999922.12</v>
       </c>
-      <c r="G51" s="17">
+      <c r="G51" s="11">
         <v>96747152.980000064</v>
       </c>
-      <c r="H51" s="17">
+      <c r="H51" s="11">
         <v>177921803.39999995</v>
       </c>
-      <c r="I51" s="17">
+      <c r="I51" s="11">
         <v>103474989.82999997</v>
       </c>
-      <c r="J51" s="17">
+      <c r="J51" s="16">
         <v>95419549.920000002</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="16" t="s">
+      <c r="A52" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B52" s="17">
+      <c r="B52" s="11">
         <v>271856068.18000001</v>
       </c>
-      <c r="C52" s="17">
+      <c r="C52" s="11">
         <v>194523430.49000001</v>
       </c>
-      <c r="D52" s="17">
+      <c r="D52" s="11">
         <v>117137984.42999998</v>
       </c>
-      <c r="E52" s="17">
+      <c r="E52" s="11">
         <v>98386697.530000001</v>
       </c>
-      <c r="F52" s="17">
+      <c r="F52" s="11">
         <v>26051422.41</v>
       </c>
-      <c r="G52" s="17">
+      <c r="G52" s="11">
         <v>16249430.109999999</v>
       </c>
-      <c r="H52" s="17">
+      <c r="H52" s="11">
         <v>19974020.16</v>
       </c>
-      <c r="I52" s="17">
+      <c r="I52" s="11">
         <v>98554428.200000003</v>
       </c>
-      <c r="J52" s="17">
+      <c r="J52" s="16">
         <v>198760066.67999998</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="16" t="s">
+      <c r="A53" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B53" s="17">
+      <c r="B53" s="11">
         <v>5439284.9000000004</v>
       </c>
-      <c r="C53" s="17">
+      <c r="C53" s="11">
         <v>8316501.4400000004</v>
       </c>
-      <c r="D53" s="17">
+      <c r="D53" s="11">
         <v>328017.69</v>
       </c>
-      <c r="E53" s="17">
-        <v>0</v>
-      </c>
-      <c r="F53" s="17">
+      <c r="E53" s="11">
+        <v>0</v>
+      </c>
+      <c r="F53" s="11">
         <v>7469830.8399999999</v>
       </c>
-      <c r="G53" s="17">
+      <c r="G53" s="11">
         <v>2773767</v>
       </c>
-      <c r="H53" s="17">
+      <c r="H53" s="11">
         <v>8596457.7300000004</v>
       </c>
-      <c r="I53" s="17">
+      <c r="I53" s="11">
         <v>368891.9</v>
       </c>
-      <c r="J53" s="17">
+      <c r="J53" s="16">
         <v>3352682.63</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="16" t="s">
+      <c r="A54" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B54" s="17">
+      <c r="B54" s="11">
         <v>602141808.66999972</v>
       </c>
-      <c r="C54" s="17">
+      <c r="C54" s="11">
         <v>407813826.23999912</v>
       </c>
-      <c r="D54" s="17">
+      <c r="D54" s="11">
         <v>418377405.08000082</v>
       </c>
-      <c r="E54" s="17">
+      <c r="E54" s="11">
         <v>409751518.67000151</v>
       </c>
-      <c r="F54" s="17">
+      <c r="F54" s="11">
         <v>394456112.49999881</v>
       </c>
-      <c r="G54" s="17">
+      <c r="G54" s="11">
         <v>540120816.5999999</v>
       </c>
-      <c r="H54" s="17">
+      <c r="H54" s="11">
         <v>614207206.36000156</v>
       </c>
-      <c r="I54" s="17">
+      <c r="I54" s="11">
         <v>742542539.32999945</v>
       </c>
-      <c r="J54" s="17">
+      <c r="J54" s="16">
         <v>645969256.51000011</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B55" s="17">
+      <c r="B55" s="11">
         <v>45949451.939999998</v>
       </c>
-      <c r="C55" s="17">
+      <c r="C55" s="11">
         <v>17473161.739999998</v>
       </c>
-      <c r="D55" s="17">
+      <c r="D55" s="11">
         <v>26335843.240000002</v>
       </c>
-      <c r="E55" s="17">
+      <c r="E55" s="11">
         <v>28905013.239999998</v>
       </c>
-      <c r="F55" s="17">
+      <c r="F55" s="11">
         <v>28020558.059999999</v>
       </c>
-      <c r="G55" s="17">
+      <c r="G55" s="11">
         <v>19861724.370000001</v>
       </c>
-      <c r="H55" s="17">
+      <c r="H55" s="11">
         <v>32798329.07</v>
       </c>
-      <c r="I55" s="17">
+      <c r="I55" s="11">
         <v>50879973.32</v>
       </c>
-      <c r="J55" s="17">
+      <c r="J55" s="16">
         <v>16954209.309999999</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="16" t="s">
+      <c r="A56" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="B56" s="17">
+      <c r="B56" s="21">
         <v>97769115.280000091</v>
       </c>
-      <c r="C56" s="17">
+      <c r="C56" s="21">
         <v>83318498.770000041</v>
       </c>
-      <c r="D56" s="17">
+      <c r="D56" s="21">
         <v>92686453.360000059</v>
       </c>
-      <c r="E56" s="17">
+      <c r="E56" s="21">
         <v>63586430.479999989</v>
       </c>
-      <c r="F56" s="17">
+      <c r="F56" s="21">
         <v>65056581.250000045</v>
       </c>
-      <c r="G56" s="17">
+      <c r="G56" s="21">
         <v>56284640.660000041</v>
       </c>
-      <c r="H56" s="17">
+      <c r="H56" s="21">
         <v>80547184.970000193</v>
       </c>
-      <c r="I56" s="17">
+      <c r="I56" s="21">
         <v>80688377.760000095</v>
       </c>
-      <c r="J56" s="17">
+      <c r="J56" s="22">
         <v>98446691.600000024</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/VALOR/Importaciones por Lugar de Salida 2020 - Mensual - Actualización 31-09-2020 - Editado.xlsx
+++ b/VALOR/Importaciones por Lugar de Salida 2020 - Mensual - Actualización 31-09-2020 - Editado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-COMERCIO\VALOR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-COMERCIO\VALOR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76ABACB4-8A2F-46BC-93D3-2FD3B69F17D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD78DA2-0F19-41A7-B0D6-96211D2FF2B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4665" yWindow="4665" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="impoluging" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="78">
   <si>
     <t>Lugar de Ingreso (Puerto-Aeropuerto-Avanzada)</t>
   </si>
@@ -258,6 +258,27 @@
   <si>
     <t>Total general</t>
   </si>
+  <si>
+    <t>AEROP. EL TEPUAL</t>
+  </si>
+  <si>
+    <t>CASTRO</t>
+  </si>
+  <si>
+    <t>LEBU</t>
+  </si>
+  <si>
+    <t>LOTA</t>
+  </si>
+  <si>
+    <t>Octubre - 2020</t>
+  </si>
+  <si>
+    <t>Noviembre - 2020</t>
+  </si>
+  <si>
+    <t>Diciembre - 2020</t>
+  </si>
 </sst>
 </file>
 
@@ -266,7 +287,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,6 +322,19 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -477,7 +511,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -498,6 +532,15 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -507,28 +550,95 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="18">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -541,7 +651,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -563,14 +673,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -827,13 +929,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -843,6 +938,21 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -862,19 +972,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CAC00E37-3CB8-4E52-9D0D-66AD09C2F625}" name="imp_salida_valor_2020" displayName="imp_salida_valor_2020" ref="A1:J56" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="13" tableBorderDxfId="14" totalsRowBorderDxfId="12">
-  <autoFilter ref="A1:J56" xr:uid="{54B30676-5E8F-456C-8186-644238D5CE2E}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{01EE0C79-8708-4C06-A9AA-34C87F48767B}" name="Lugar de Ingreso (Puerto-Aeropuerto-Avanzada)" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{3378E9AE-9E15-4C50-A775-7C4761405F54}" name="Enero - 2020" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{06D09FC7-EFFB-48C3-B658-DE650AC96A22}" name="Febrero - 2020" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{C2248265-8DF8-47A1-9021-CAA036056AB3}" name="Marzo - 2020" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{64DAF57B-DA62-48E7-8986-FF45498B8D3D}" name="Abril - 2020" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{096DC5BE-1B26-49A1-9EC5-7259C81CD024}" name="Mayo - 2020" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{4300FF5A-46E4-410B-BD74-9214AF944F2F}" name="Junio - 2020" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{81486027-EE5D-4CF2-9925-5CA7051C5276}" name="Julio - 2020" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{61CE193A-CF49-400C-BFBE-D38B041AFC91}" name="Agosto - 2020" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{07C67AA1-1D7E-4355-BA82-2B85D9134645}" name="Septiembre - 2020" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CAC00E37-3CB8-4E52-9D0D-66AD09C2F625}" name="imp_salida_valor_2020" displayName="imp_salida_valor_2020" ref="A1:M60" totalsRowShown="0" headerRowDxfId="3" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+  <autoFilter ref="A1:M60" xr:uid="{54B30676-5E8F-456C-8186-644238D5CE2E}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{01EE0C79-8708-4C06-A9AA-34C87F48767B}" name="Lugar de Ingreso (Puerto-Aeropuerto-Avanzada)" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{3378E9AE-9E15-4C50-A775-7C4761405F54}" name="Enero - 2020" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{06D09FC7-EFFB-48C3-B658-DE650AC96A22}" name="Febrero - 2020" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{C2248265-8DF8-47A1-9021-CAA036056AB3}" name="Marzo - 2020" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{64DAF57B-DA62-48E7-8986-FF45498B8D3D}" name="Abril - 2020" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{096DC5BE-1B26-49A1-9EC5-7259C81CD024}" name="Mayo - 2020" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{4300FF5A-46E4-410B-BD74-9214AF944F2F}" name="Junio - 2020" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{81486027-EE5D-4CF2-9925-5CA7051C5276}" name="Julio - 2020" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{61CE193A-CF49-400C-BFBE-D38B041AFC91}" name="Agosto - 2020" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{07C67AA1-1D7E-4355-BA82-2B85D9134645}" name="Septiembre - 2020" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{E9A32645-731E-4DF8-B50E-EE8F3B8F42F2}" name="Octubre - 2020" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{E713C86B-47C1-4D26-B1EC-1AF6C8546E8A}" name="Noviembre - 2020" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{FE3052B7-1CA3-41AA-B445-7811932C4607}" name="Diciembre - 2020" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1152,52 +1265,52 @@
       <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="44.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="15.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.44140625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="11.44140625" style="1"/>
+    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="44.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="15.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="13" t="s">
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1228,9 +1341,9 @@
       <c r="K4" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="L4" s="13"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L4" s="18"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>53</v>
       </c>
@@ -1265,7 +1378,7 @@
         <v>27769.43</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>54</v>
       </c>
@@ -1300,7 +1413,7 @@
         <v>6460579728.7699909</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>13</v>
       </c>
@@ -1335,7 +1448,7 @@
         <v>108920.22</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>14</v>
       </c>
@@ -1370,7 +1483,7 @@
         <v>77928370.100000009</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>15</v>
       </c>
@@ -1405,7 +1518,7 @@
         <v>9456.7999999999993</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>16</v>
       </c>
@@ -1440,7 +1553,7 @@
         <v>33899.69</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
         <v>17</v>
       </c>
@@ -1475,7 +1588,7 @@
         <v>3745.97</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
         <v>18</v>
       </c>
@@ -1510,7 +1623,7 @@
         <v>460321870.25999993</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
         <v>19</v>
       </c>
@@ -1545,7 +1658,7 @@
         <v>37757303.390000001</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
         <v>20</v>
       </c>
@@ -1580,7 +1693,7 @@
         <v>32975295.610000003</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
         <v>21</v>
       </c>
@@ -1615,7 +1728,7 @@
         <v>97950998.920000002</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
         <v>22</v>
       </c>
@@ -1650,7 +1763,7 @@
         <v>106742474.69</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
         <v>55</v>
       </c>
@@ -1685,7 +1798,7 @@
         <v>32503806.32</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
         <v>56</v>
       </c>
@@ -1720,7 +1833,7 @@
         <v>440358.40000000002</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
         <v>57</v>
       </c>
@@ -1755,7 +1868,7 @@
         <v>26025877.240000002</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
         <v>58</v>
       </c>
@@ -1790,7 +1903,7 @@
         <v>29140555.909999996</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
         <v>23</v>
       </c>
@@ -1825,7 +1938,7 @@
         <v>43327.4</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
         <v>24</v>
       </c>
@@ -1860,7 +1973,7 @@
         <v>92181849.079999983</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
         <v>25</v>
       </c>
@@ -1895,7 +2008,7 @@
         <v>52360027.210000001</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
         <v>26</v>
       </c>
@@ -1930,7 +2043,7 @@
         <v>1011809497.7200003</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="9" t="s">
         <v>59</v>
       </c>
@@ -1965,7 +2078,7 @@
         <v>1126.1200000000001</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
         <v>27</v>
       </c>
@@ -2000,7 +2113,7 @@
         <v>2625984368.0299988</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="9" t="s">
         <v>60</v>
       </c>
@@ -2035,7 +2148,7 @@
         <v>62441.21</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="9" t="s">
         <v>61</v>
       </c>
@@ -2070,7 +2183,7 @@
         <v>458.45</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="9" t="s">
         <v>28</v>
       </c>
@@ -2105,7 +2218,7 @@
         <v>16286237.08</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="9" t="s">
         <v>62</v>
       </c>
@@ -2140,7 +2253,7 @@
         <v>13506981.379999999</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" s="9" t="s">
         <v>29</v>
       </c>
@@ -2175,7 +2288,7 @@
         <v>244372497.09999999</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="9" t="s">
         <v>30</v>
       </c>
@@ -2210,7 +2323,7 @@
         <v>992547.15</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" s="9" t="s">
         <v>63</v>
       </c>
@@ -2245,7 +2358,7 @@
         <v>1844.45</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" s="9" t="s">
         <v>31</v>
       </c>
@@ -2280,7 +2393,7 @@
         <v>684146324.10000002</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" s="9" t="s">
         <v>32</v>
       </c>
@@ -2315,7 +2428,7 @@
         <v>40924.58</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" s="9" t="s">
         <v>33</v>
       </c>
@@ -2350,7 +2463,7 @@
         <v>36679083.799999997</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" s="9" t="s">
         <v>64</v>
       </c>
@@ -2385,7 +2498,7 @@
         <v>659921732.94000006</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38" s="9" t="s">
         <v>65</v>
       </c>
@@ -2420,7 +2533,7 @@
         <v>20387.09</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39" s="9" t="s">
         <v>34</v>
       </c>
@@ -2455,7 +2568,7 @@
         <v>1101510107.73</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
         <v>35</v>
       </c>
@@ -2490,7 +2603,7 @@
         <v>1628183.42</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41" s="9" t="s">
         <v>36</v>
       </c>
@@ -2525,7 +2638,7 @@
         <v>7413.27</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B42" s="9" t="s">
         <v>66</v>
       </c>
@@ -2560,7 +2673,7 @@
         <v>26313676.399999999</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B43" s="9" t="s">
         <v>37</v>
       </c>
@@ -2595,7 +2708,7 @@
         <v>802836.35</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B44" s="9" t="s">
         <v>38</v>
       </c>
@@ -2630,7 +2743,7 @@
         <v>81305756.519999996</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B45" s="9" t="s">
         <v>39</v>
       </c>
@@ -2665,7 +2778,7 @@
         <v>68875198.280000001</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B46" s="9" t="s">
         <v>40</v>
       </c>
@@ -2700,7 +2813,7 @@
         <v>1861446339.95</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B47" s="9" t="s">
         <v>41</v>
       </c>
@@ -2735,7 +2848,7 @@
         <v>277143359.77999997</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B48" s="9" t="s">
         <v>42</v>
       </c>
@@ -2770,7 +2883,7 @@
         <v>29303151.719999995</v>
       </c>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B49" s="9" t="s">
         <v>43</v>
       </c>
@@ -2805,7 +2918,7 @@
         <v>1777154075.27</v>
       </c>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
         <v>44</v>
       </c>
@@ -2840,7 +2953,7 @@
         <v>14486688014.220011</v>
       </c>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B51" s="9" t="s">
         <v>45</v>
       </c>
@@ -2875,7 +2988,7 @@
         <v>838162.57</v>
       </c>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B52" s="9" t="s">
         <v>46</v>
       </c>
@@ -2910,7 +3023,7 @@
         <v>141194.85999999999</v>
       </c>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B53" s="9" t="s">
         <v>67</v>
       </c>
@@ -2945,7 +3058,7 @@
         <v>29846.379999999997</v>
       </c>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B54" s="9" t="s">
         <v>47</v>
       </c>
@@ -2980,7 +3093,7 @@
         <v>1239281941.7800002</v>
       </c>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B55" s="9" t="s">
         <v>48</v>
       </c>
@@ -3015,7 +3128,7 @@
         <v>1041493548.1899999</v>
       </c>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B56" s="9" t="s">
         <v>49</v>
       </c>
@@ -3050,7 +3163,7 @@
         <v>36645434.129999995</v>
       </c>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B57" s="9" t="s">
         <v>68</v>
       </c>
@@ -3085,7 +3198,7 @@
         <v>4775380489.960001</v>
       </c>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B58" s="9" t="s">
         <v>50</v>
       </c>
@@ -3120,7 +3233,7 @@
         <v>267178264.28999996</v>
       </c>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B59" s="9" t="s">
         <v>69</v>
       </c>
@@ -3155,7 +3268,7 @@
         <v>718383974.13000059</v>
       </c>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="s">
         <v>70</v>
       </c>
@@ -3190,7 +3303,7 @@
         <v>40592513055.809998</v>
       </c>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B61" s="5" t="s">
         <v>11</v>
       </c>
@@ -3208,55 +3321,65 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D967F060-6D42-4287-BD07-F8E0EB2AE994}">
-  <dimension ref="A1:J56"/>
+  <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J56"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="15.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.109375" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.44140625" style="1"/>
+    <col min="1" max="1" width="44.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="15.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" style="1" customWidth="1"/>
+    <col min="11" max="13" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="22" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="K1" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>53</v>
       </c>
       <c r="B2" s="11">
@@ -3283,44 +3406,62 @@
       <c r="I2" s="11">
         <v>0</v>
       </c>
-      <c r="J2" s="16">
+      <c r="J2" s="13">
         <v>27769.43</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="K2" s="23">
+        <v>0</v>
+      </c>
+      <c r="L2" s="23">
+        <v>0</v>
+      </c>
+      <c r="M2" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>54</v>
       </c>
       <c r="B3" s="11">
-        <v>737693083.79999959</v>
+        <v>737699390.6799978</v>
       </c>
       <c r="C3" s="11">
-        <v>632171126.91000247</v>
+        <v>632076767.15000236</v>
       </c>
       <c r="D3" s="11">
-        <v>751716185.54999709</v>
+        <v>751533091.76000345</v>
       </c>
       <c r="E3" s="11">
-        <v>639741417.57999897</v>
+        <v>638941293.45999634</v>
       </c>
       <c r="F3" s="11">
-        <v>650516523.05000234</v>
+        <v>650365364.89999545</v>
       </c>
       <c r="G3" s="11">
-        <v>737168400.72000158</v>
+        <v>732969484.2300055</v>
       </c>
       <c r="H3" s="11">
-        <v>781938383.55999649</v>
+        <v>781852208.62999749</v>
       </c>
       <c r="I3" s="11">
-        <v>721612034.3399992</v>
-      </c>
-      <c r="J3" s="16">
-        <v>808022573.25999308</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+        <v>721335899.58999598</v>
+      </c>
+      <c r="J3" s="13">
+        <v>807565038.27999938</v>
+      </c>
+      <c r="K3" s="11">
+        <v>906355766.13999712</v>
+      </c>
+      <c r="L3" s="11">
+        <v>892759164.58999908</v>
+      </c>
+      <c r="M3" s="11">
+        <v>892926411.91000915</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="11">
@@ -3342,49 +3483,67 @@
         <v>0</v>
       </c>
       <c r="H4" s="11">
-        <v>17951.2</v>
+        <v>17951.199999999997</v>
       </c>
       <c r="I4" s="11">
         <v>0</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="13">
         <v>78944.25</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+      <c r="K4" s="11">
+        <v>11025.36</v>
+      </c>
+      <c r="L4" s="11">
+        <v>0</v>
+      </c>
+      <c r="M4" s="11">
+        <v>1209.6199999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="11">
-        <v>7014911.7599999988</v>
+        <v>7014911.7599999998</v>
       </c>
       <c r="C5" s="11">
-        <v>8079657.29</v>
+        <v>7965441.4800000023</v>
       </c>
       <c r="D5" s="11">
-        <v>8343746.3400000036</v>
+        <v>8343746.3399999896</v>
       </c>
       <c r="E5" s="11">
-        <v>9682085.9099999983</v>
+        <v>9682085.9099999946</v>
       </c>
       <c r="F5" s="11">
-        <v>8933843.2899999972</v>
+        <v>8933843.2899999954</v>
       </c>
       <c r="G5" s="11">
-        <v>10747861.630000008</v>
+        <v>10747861.629999995</v>
       </c>
       <c r="H5" s="11">
         <v>9091850.1099999975</v>
       </c>
       <c r="I5" s="11">
-        <v>7716348.8199999984</v>
-      </c>
-      <c r="J5" s="16">
-        <v>8318064.950000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+        <v>7716348.8199999975</v>
+      </c>
+      <c r="J5" s="13">
+        <v>8280584.2600000007</v>
+      </c>
+      <c r="K5" s="11">
+        <v>1399138.7599999995</v>
+      </c>
+      <c r="L5" s="11">
+        <v>19466.66</v>
+      </c>
+      <c r="M5" s="11">
+        <v>59143.83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="11">
@@ -3411,1611 +3570,2235 @@
       <c r="I6" s="11">
         <v>0</v>
       </c>
-      <c r="J6" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+      <c r="J6" s="13">
+        <v>0</v>
+      </c>
+      <c r="K6" s="11">
+        <v>0</v>
+      </c>
+      <c r="L6" s="11">
+        <v>0</v>
+      </c>
+      <c r="M6" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="11">
+        <v>0</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0</v>
+      </c>
+      <c r="E7" s="11">
+        <v>0</v>
+      </c>
+      <c r="F7" s="11">
+        <v>0</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0</v>
+      </c>
+      <c r="K7" s="11">
+        <v>0</v>
+      </c>
+      <c r="L7" s="11">
+        <v>0</v>
+      </c>
+      <c r="M7" s="11">
+        <v>1901188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="11">
-        <v>0</v>
-      </c>
-      <c r="C7" s="11">
+      <c r="B8" s="11">
+        <v>0</v>
+      </c>
+      <c r="C8" s="11">
         <v>20910.77</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D8" s="11">
         <v>3704.09</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E8" s="11">
         <v>9284.83</v>
       </c>
-      <c r="F7" s="11">
-        <v>0</v>
-      </c>
-      <c r="G7" s="11">
-        <v>0</v>
-      </c>
-      <c r="H7" s="11">
-        <v>0</v>
-      </c>
-      <c r="I7" s="11">
-        <v>0</v>
-      </c>
-      <c r="J7" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+      <c r="F8" s="11">
+        <v>0</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0</v>
+      </c>
+      <c r="H8" s="11">
+        <v>0</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0</v>
+      </c>
+      <c r="J8" s="13">
+        <v>0</v>
+      </c>
+      <c r="K8" s="11">
+        <v>0</v>
+      </c>
+      <c r="L8" s="11">
+        <v>0</v>
+      </c>
+      <c r="M8" s="11">
+        <v>15760.06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B9" s="11">
         <v>3745.97</v>
       </c>
-      <c r="C8" s="11">
-        <v>0</v>
-      </c>
-      <c r="D8" s="11">
-        <v>0</v>
-      </c>
-      <c r="E8" s="11">
-        <v>0</v>
-      </c>
-      <c r="F8" s="11">
-        <v>0</v>
-      </c>
-      <c r="G8" s="11">
-        <v>0</v>
-      </c>
-      <c r="H8" s="11">
-        <v>0</v>
-      </c>
-      <c r="I8" s="11">
-        <v>0</v>
-      </c>
-      <c r="J8" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
+      <c r="C9" s="11">
+        <v>0</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0</v>
+      </c>
+      <c r="F9" s="11">
+        <v>0</v>
+      </c>
+      <c r="G9" s="11">
+        <v>0</v>
+      </c>
+      <c r="H9" s="11">
+        <v>0</v>
+      </c>
+      <c r="I9" s="11">
+        <v>0</v>
+      </c>
+      <c r="J9" s="13">
+        <v>0</v>
+      </c>
+      <c r="K9" s="11">
+        <v>0</v>
+      </c>
+      <c r="L9" s="11">
+        <v>0</v>
+      </c>
+      <c r="M9" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="11">
-        <v>92250769.819999993</v>
-      </c>
-      <c r="C9" s="11">
-        <v>54890106.260000028</v>
-      </c>
-      <c r="D9" s="11">
-        <v>56226521.750000007</v>
-      </c>
-      <c r="E9" s="11">
-        <v>47456812.069999993</v>
-      </c>
-      <c r="F9" s="11">
-        <v>57129263.069999993</v>
-      </c>
-      <c r="G9" s="11">
-        <v>54861025.739999942</v>
-      </c>
-      <c r="H9" s="11">
-        <v>38538459.579999983</v>
-      </c>
-      <c r="I9" s="11">
-        <v>38918805.190000005</v>
-      </c>
-      <c r="J9" s="16">
-        <v>20050106.779999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
+      <c r="B10" s="11">
+        <v>91598950.079999939</v>
+      </c>
+      <c r="C10" s="11">
+        <v>54874496.530000038</v>
+      </c>
+      <c r="D10" s="11">
+        <v>56226297.479999997</v>
+      </c>
+      <c r="E10" s="11">
+        <v>47456812.07</v>
+      </c>
+      <c r="F10" s="11">
+        <v>57160526.599999994</v>
+      </c>
+      <c r="G10" s="11">
+        <v>54898881.929999977</v>
+      </c>
+      <c r="H10" s="11">
+        <v>39131709.349999987</v>
+      </c>
+      <c r="I10" s="11">
+        <v>38045016.989999987</v>
+      </c>
+      <c r="J10" s="13">
+        <v>10622225.290000003</v>
+      </c>
+      <c r="K10" s="11">
+        <v>17801918.039999995</v>
+      </c>
+      <c r="L10" s="11">
+        <v>43762503.039999999</v>
+      </c>
+      <c r="M10" s="11">
+        <v>63401091.140000053</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="11">
-        <v>6177626.4099999992</v>
-      </c>
-      <c r="C10" s="11">
+      <c r="B11" s="11">
+        <v>6177626.4099999983</v>
+      </c>
+      <c r="C11" s="11">
         <v>4217690.4399999995</v>
       </c>
-      <c r="D10" s="11">
-        <v>3048335.4899999984</v>
-      </c>
-      <c r="E10" s="11">
-        <v>5515871.8599999994</v>
-      </c>
-      <c r="F10" s="11">
-        <v>2929669.28</v>
-      </c>
-      <c r="G10" s="11">
+      <c r="D11" s="11">
+        <v>3048335.4899999998</v>
+      </c>
+      <c r="E11" s="11">
+        <v>5515871.8599999966</v>
+      </c>
+      <c r="F11" s="11">
+        <v>2929669.2799999989</v>
+      </c>
+      <c r="G11" s="11">
         <v>2640666.11</v>
       </c>
-      <c r="H10" s="11">
-        <v>3840873.1599999992</v>
-      </c>
-      <c r="I10" s="11">
-        <v>4712001.9100000029</v>
-      </c>
-      <c r="J10" s="16">
-        <v>4674568.7299999995</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
+      <c r="H11" s="11">
+        <v>3840873.1599999997</v>
+      </c>
+      <c r="I11" s="11">
+        <v>4712001.910000002</v>
+      </c>
+      <c r="J11" s="13">
+        <v>4551012.1700000009</v>
+      </c>
+      <c r="K11" s="11">
+        <v>4315334.209999999</v>
+      </c>
+      <c r="L11" s="11">
+        <v>5269202.2500000009</v>
+      </c>
+      <c r="M11" s="11">
+        <v>6196537.910000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B12" s="11">
         <v>3887718.3200000003</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C12" s="11">
         <v>2326368.1700000004</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D12" s="11">
         <v>2879456.63</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E12" s="11">
         <v>2859274.33</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F12" s="11">
         <v>3859263.7399999998</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G12" s="11">
         <v>3936111.85</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H12" s="11">
         <v>3745462.62</v>
       </c>
-      <c r="I11" s="11">
-        <v>4442887.95</v>
-      </c>
-      <c r="J11" s="16">
-        <v>5038752</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
+      <c r="I12" s="11">
+        <v>3539449.88</v>
+      </c>
+      <c r="J12" s="13">
+        <v>4390246.03</v>
+      </c>
+      <c r="K12" s="11">
+        <v>4919431.8099999996</v>
+      </c>
+      <c r="L12" s="11">
+        <v>5519366.0600000005</v>
+      </c>
+      <c r="M12" s="11">
+        <v>6806889.2599999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B13" s="11">
         <v>13305598.779999999</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C13" s="11">
         <v>16546892.5</v>
       </c>
-      <c r="D12" s="11">
-        <v>10396289.93</v>
-      </c>
-      <c r="E12" s="11">
+      <c r="D13" s="11">
+        <v>10440282.26</v>
+      </c>
+      <c r="E13" s="11">
         <v>15277754.99</v>
       </c>
-      <c r="F12" s="11">
-        <v>0</v>
-      </c>
-      <c r="G12" s="11">
+      <c r="F13" s="11">
+        <v>0</v>
+      </c>
+      <c r="G13" s="11">
         <v>13210118.42</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H13" s="11">
         <v>7539467.7800000003</v>
       </c>
-      <c r="I12" s="11">
-        <v>18131487.52</v>
-      </c>
-      <c r="J12" s="16">
-        <v>3543389</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
+      <c r="I13" s="11">
+        <v>18153985.960000001</v>
+      </c>
+      <c r="J13" s="13">
+        <v>3573778.46</v>
+      </c>
+      <c r="K13" s="11">
+        <v>16520857.57</v>
+      </c>
+      <c r="L13" s="11">
+        <v>0</v>
+      </c>
+      <c r="M13" s="11">
+        <v>15137714.67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B14" s="11">
         <v>28226148.800000001</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C14" s="11">
         <v>7494522.5700000003</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D14" s="11">
         <v>11162184.100000001</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E14" s="11">
         <v>6558239.8799999999</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F14" s="11">
         <v>6551714.2199999997</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G14" s="11">
         <v>9950206.6900000013</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H14" s="11">
         <v>15333374.24</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I14" s="11">
         <v>6068204.21</v>
       </c>
-      <c r="J13" s="16">
-        <v>15397879.98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
+      <c r="J14" s="13">
+        <v>15221573.51</v>
+      </c>
+      <c r="K14" s="11">
+        <v>10885132.609999999</v>
+      </c>
+      <c r="L14" s="11">
+        <v>3750970.1500000004</v>
+      </c>
+      <c r="M14" s="11">
+        <v>18326922.699999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B15" s="11">
         <v>3541363.17</v>
       </c>
-      <c r="C14" s="11">
-        <v>3066005.4400000004</v>
-      </c>
-      <c r="D14" s="11">
-        <v>2846075.31</v>
-      </c>
-      <c r="E14" s="11">
-        <v>3183633.79</v>
-      </c>
-      <c r="F14" s="11">
-        <v>3337111.44</v>
-      </c>
-      <c r="G14" s="11">
-        <v>4831701.8399999989</v>
-      </c>
-      <c r="H14" s="11">
+      <c r="C15" s="11">
+        <v>3056523.6100000008</v>
+      </c>
+      <c r="D15" s="11">
+        <v>2845751.9500000011</v>
+      </c>
+      <c r="E15" s="11">
+        <v>3181510.8399999994</v>
+      </c>
+      <c r="F15" s="11">
+        <v>3332793.6899999995</v>
+      </c>
+      <c r="G15" s="11">
+        <v>4828258.09</v>
+      </c>
+      <c r="H15" s="11">
         <v>4186671.83</v>
       </c>
-      <c r="I14" s="11">
-        <v>4055879.73</v>
-      </c>
-      <c r="J14" s="16">
-        <v>3455363.77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
+      <c r="I15" s="11">
+        <v>4049851.2300000004</v>
+      </c>
+      <c r="J15" s="13">
+        <v>3437229.3900000006</v>
+      </c>
+      <c r="K15" s="11">
+        <v>5799725.6200000001</v>
+      </c>
+      <c r="L15" s="11">
+        <v>2522341.91</v>
+      </c>
+      <c r="M15" s="11">
+        <v>3121805.4499999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="11">
+        <v>0</v>
+      </c>
+      <c r="C16" s="11">
+        <v>0</v>
+      </c>
+      <c r="D16" s="11">
+        <v>0</v>
+      </c>
+      <c r="E16" s="11">
+        <v>0</v>
+      </c>
+      <c r="F16" s="11">
+        <v>0</v>
+      </c>
+      <c r="G16" s="11">
+        <v>0</v>
+      </c>
+      <c r="H16" s="11">
+        <v>0</v>
+      </c>
+      <c r="I16" s="11">
+        <v>0</v>
+      </c>
+      <c r="J16" s="13">
+        <v>0</v>
+      </c>
+      <c r="K16" s="11">
+        <v>10431.6</v>
+      </c>
+      <c r="L16" s="11">
+        <v>0</v>
+      </c>
+      <c r="M16" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B17" s="11">
         <v>3250.48</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C17" s="11">
         <v>11764.65</v>
       </c>
-      <c r="D15" s="11">
-        <v>0</v>
-      </c>
-      <c r="E15" s="11">
-        <v>0</v>
-      </c>
-      <c r="F15" s="11">
-        <v>0</v>
-      </c>
-      <c r="G15" s="11">
+      <c r="D17" s="11">
+        <v>0</v>
+      </c>
+      <c r="E17" s="11">
+        <v>0</v>
+      </c>
+      <c r="F17" s="11">
+        <v>0</v>
+      </c>
+      <c r="G17" s="11">
         <v>4600.2199999999993</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H17" s="11">
         <v>43501.06</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I17" s="11">
         <v>338859.9</v>
       </c>
-      <c r="J15" s="16">
+      <c r="J17" s="13">
         <v>38382.090000000004</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="15" t="s">
+      <c r="K17" s="11">
+        <v>23196.960000000003</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>40829.040000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B18" s="11">
         <v>7100277.6500000004</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C18" s="11">
         <v>3339270.8600000003</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D18" s="11">
         <v>4054051.06</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E18" s="11">
         <v>1466353.8900000001</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F18" s="11">
         <v>491483.69</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G18" s="11">
         <v>2193682.85</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H18" s="11">
         <v>997660.63</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I18" s="11">
         <v>2491979.54</v>
       </c>
-      <c r="J16" s="16">
+      <c r="J18" s="13">
         <v>3891117.07</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
+      <c r="K18" s="11">
+        <v>822818.32000000007</v>
+      </c>
+      <c r="L18" s="11">
+        <v>1221364</v>
+      </c>
+      <c r="M18" s="11">
+        <v>2792463.99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="11">
-        <v>3876632.149999998</v>
-      </c>
-      <c r="C17" s="11">
-        <v>3282494.2999999993</v>
-      </c>
-      <c r="D17" s="11">
-        <v>2768619.8200000008</v>
-      </c>
-      <c r="E17" s="11">
-        <v>3271611.2399999998</v>
-      </c>
-      <c r="F17" s="11">
+      <c r="B19" s="11">
+        <v>3876632.149999999</v>
+      </c>
+      <c r="C19" s="11">
+        <v>3282494.2999999989</v>
+      </c>
+      <c r="D19" s="11">
+        <v>2768619.82</v>
+      </c>
+      <c r="E19" s="11">
+        <v>3271611.24</v>
+      </c>
+      <c r="F19" s="11">
         <v>3219750.0300000003</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G19" s="11">
         <v>4147202.5</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H19" s="11">
         <v>2821573.2199999997</v>
       </c>
-      <c r="I17" s="11">
-        <v>3032024.56</v>
-      </c>
-      <c r="J17" s="16">
-        <v>2720648.09</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
+      <c r="I19" s="11">
+        <v>3033003.3600000003</v>
+      </c>
+      <c r="J19" s="13">
+        <v>2720648.0899999994</v>
+      </c>
+      <c r="K19" s="11">
+        <v>3415091.8399999994</v>
+      </c>
+      <c r="L19" s="11">
+        <v>4249676.0000000009</v>
+      </c>
+      <c r="M19" s="11">
+        <v>3285151.53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="11">
-        <v>0</v>
-      </c>
-      <c r="C18" s="11">
-        <v>0</v>
-      </c>
-      <c r="D18" s="11">
-        <v>0</v>
-      </c>
-      <c r="E18" s="11">
-        <v>0</v>
-      </c>
-      <c r="F18" s="11">
-        <v>0</v>
-      </c>
-      <c r="G18" s="11">
-        <v>0</v>
-      </c>
-      <c r="H18" s="11">
+      <c r="B20" s="11">
+        <v>0</v>
+      </c>
+      <c r="C20" s="11">
+        <v>0</v>
+      </c>
+      <c r="D20" s="11">
+        <v>0</v>
+      </c>
+      <c r="E20" s="11">
+        <v>0</v>
+      </c>
+      <c r="F20" s="11">
+        <v>0</v>
+      </c>
+      <c r="G20" s="11">
+        <v>0</v>
+      </c>
+      <c r="H20" s="11">
         <v>16230.9</v>
       </c>
-      <c r="I18" s="11">
-        <v>0</v>
-      </c>
-      <c r="J18" s="16">
+      <c r="I20" s="11">
+        <v>0</v>
+      </c>
+      <c r="J20" s="13">
         <v>27096.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="15" t="s">
+      <c r="K20" s="11">
+        <v>0</v>
+      </c>
+      <c r="L20" s="11">
+        <v>0</v>
+      </c>
+      <c r="M20" s="11">
+        <v>1106.8900000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="11">
-        <v>8670353.9399999976</v>
-      </c>
-      <c r="C19" s="11">
-        <v>6149331.8499999959</v>
-      </c>
-      <c r="D19" s="11">
-        <v>8306615.4400000004</v>
-      </c>
-      <c r="E19" s="11">
+      <c r="B21" s="11">
+        <v>8670353.9400000013</v>
+      </c>
+      <c r="C21" s="11">
+        <v>6149331.8500000006</v>
+      </c>
+      <c r="D21" s="11">
+        <v>8306615.4400000041</v>
+      </c>
+      <c r="E21" s="11">
         <v>9201678.7400000002</v>
       </c>
-      <c r="F19" s="11">
-        <v>8442596.7599999998</v>
-      </c>
-      <c r="G19" s="11">
-        <v>13384704.289999994</v>
-      </c>
-      <c r="H19" s="11">
-        <v>10544777.689999996</v>
-      </c>
-      <c r="I19" s="11">
-        <v>14103146.880000003</v>
-      </c>
-      <c r="J19" s="16">
-        <v>13378643.490000011</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
+      <c r="F21" s="11">
+        <v>8442596.7600000035</v>
+      </c>
+      <c r="G21" s="11">
+        <v>13384704.289999997</v>
+      </c>
+      <c r="H21" s="11">
+        <v>10544777.689999998</v>
+      </c>
+      <c r="I21" s="11">
+        <v>14064997.680000002</v>
+      </c>
+      <c r="J21" s="13">
+        <v>13392868.670000002</v>
+      </c>
+      <c r="K21" s="11">
+        <v>13881660.619999999</v>
+      </c>
+      <c r="L21" s="11">
+        <v>10470997.850000003</v>
+      </c>
+      <c r="M21" s="11">
+        <v>21202033.169999976</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B22" s="11">
         <v>120931.18</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C22" s="11">
         <v>14023401.789999999</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D22" s="11">
         <v>1152831.44</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E22" s="11">
         <v>6737076.7199999997</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F22" s="11">
         <v>1471140</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G22" s="11">
         <v>2848754.24</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H22" s="11">
         <v>7421417.9199999999</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I22" s="11">
         <v>2143259.56</v>
       </c>
-      <c r="J20" s="16">
+      <c r="J22" s="13">
         <v>16441214.359999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="15" t="s">
+      <c r="K22" s="11">
+        <v>5817793.1200000001</v>
+      </c>
+      <c r="L22" s="11">
+        <v>1205297.44</v>
+      </c>
+      <c r="M22" s="11">
+        <v>7960532.1800000006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="11">
-        <v>134486894.26000014</v>
-      </c>
-      <c r="C21" s="11">
-        <v>138868634.53000003</v>
-      </c>
-      <c r="D21" s="11">
-        <v>93753992.390000015</v>
-      </c>
-      <c r="E21" s="11">
-        <v>94032091.410000011</v>
-      </c>
-      <c r="F21" s="11">
-        <v>159689267.87</v>
-      </c>
-      <c r="G21" s="11">
-        <v>128794685.02000001</v>
-      </c>
-      <c r="H21" s="11">
-        <v>106862688.17000002</v>
-      </c>
-      <c r="I21" s="11">
-        <v>89078501.48999998</v>
-      </c>
-      <c r="J21" s="16">
-        <v>66242742.579999939</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
+      <c r="B23" s="11">
+        <v>134453659.33000013</v>
+      </c>
+      <c r="C23" s="11">
+        <v>138868634.53000006</v>
+      </c>
+      <c r="D23" s="11">
+        <v>93753992.390000001</v>
+      </c>
+      <c r="E23" s="11">
+        <v>94032091.410000026</v>
+      </c>
+      <c r="F23" s="11">
+        <v>159689267.86999997</v>
+      </c>
+      <c r="G23" s="11">
+        <v>128794685.02</v>
+      </c>
+      <c r="H23" s="11">
+        <v>106866259.38999999</v>
+      </c>
+      <c r="I23" s="11">
+        <v>89084096.40000011</v>
+      </c>
+      <c r="J23" s="13">
+        <v>66475741.939999908</v>
+      </c>
+      <c r="K23" s="11">
+        <v>76840207.320000023</v>
+      </c>
+      <c r="L23" s="11">
+        <v>102065784.12000003</v>
+      </c>
+      <c r="M23" s="11">
+        <v>110758320.24000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="11">
-        <v>0</v>
-      </c>
-      <c r="C22" s="11">
-        <v>0</v>
-      </c>
-      <c r="D22" s="11">
-        <v>0</v>
-      </c>
-      <c r="E22" s="11">
-        <v>0</v>
-      </c>
-      <c r="F22" s="11">
-        <v>0</v>
-      </c>
-      <c r="G22" s="11">
-        <v>0</v>
-      </c>
-      <c r="H22" s="11">
-        <v>0</v>
-      </c>
-      <c r="I22" s="11">
-        <v>0</v>
-      </c>
-      <c r="J22" s="16">
+      <c r="B24" s="11">
+        <v>0</v>
+      </c>
+      <c r="C24" s="11">
+        <v>0</v>
+      </c>
+      <c r="D24" s="11">
+        <v>0</v>
+      </c>
+      <c r="E24" s="11">
+        <v>0</v>
+      </c>
+      <c r="F24" s="11">
+        <v>0</v>
+      </c>
+      <c r="G24" s="11">
+        <v>0</v>
+      </c>
+      <c r="H24" s="11">
+        <v>0</v>
+      </c>
+      <c r="I24" s="11">
+        <v>0</v>
+      </c>
+      <c r="J24" s="13">
         <v>1126.1200000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
+      <c r="K24" s="11">
+        <v>0</v>
+      </c>
+      <c r="L24" s="11">
+        <v>16080.47</v>
+      </c>
+      <c r="M24" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="11">
-        <v>274988557.93999952</v>
-      </c>
-      <c r="C23" s="11">
-        <v>277925932.11999971</v>
-      </c>
-      <c r="D23" s="11">
-        <v>293044275.81000048</v>
-      </c>
-      <c r="E23" s="11">
-        <v>263627916.76000038</v>
-      </c>
-      <c r="F23" s="11">
-        <v>276948467.18999928</v>
-      </c>
-      <c r="G23" s="11">
-        <v>263487969.14999983</v>
-      </c>
-      <c r="H23" s="11">
-        <v>296191736.62000042</v>
-      </c>
-      <c r="I23" s="11">
-        <v>336923247.44999993</v>
-      </c>
-      <c r="J23" s="16">
-        <v>342846264.98999953</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="15" t="s">
+      <c r="B25" s="11">
+        <v>274982415.10999995</v>
+      </c>
+      <c r="C25" s="11">
+        <v>277882928.93000054</v>
+      </c>
+      <c r="D25" s="11">
+        <v>292948961.93999964</v>
+      </c>
+      <c r="E25" s="11">
+        <v>263538466.28000024</v>
+      </c>
+      <c r="F25" s="11">
+        <v>276655150.65999997</v>
+      </c>
+      <c r="G25" s="11">
+        <v>263284007.55999976</v>
+      </c>
+      <c r="H25" s="11">
+        <v>296029524.95000041</v>
+      </c>
+      <c r="I25" s="11">
+        <v>336765843.98000008</v>
+      </c>
+      <c r="J25" s="13">
+        <v>342402009.53999978</v>
+      </c>
+      <c r="K25" s="11">
+        <v>358062361.23000002</v>
+      </c>
+      <c r="L25" s="11">
+        <v>371484521.94999981</v>
+      </c>
+      <c r="M25" s="11">
+        <v>362598869.99999952</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="11">
-        <v>0</v>
-      </c>
-      <c r="C24" s="11">
-        <v>0</v>
-      </c>
-      <c r="D24" s="11">
-        <v>0</v>
-      </c>
-      <c r="E24" s="11">
-        <v>0</v>
-      </c>
-      <c r="F24" s="11">
-        <v>0</v>
-      </c>
-      <c r="G24" s="11">
-        <v>0</v>
-      </c>
-      <c r="H24" s="11">
-        <v>0</v>
-      </c>
-      <c r="I24" s="11">
-        <v>0</v>
-      </c>
-      <c r="J24" s="16">
-        <v>62441.21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="15" t="s">
+      <c r="B26" s="11">
+        <v>0</v>
+      </c>
+      <c r="C26" s="11">
+        <v>0</v>
+      </c>
+      <c r="D26" s="11">
+        <v>0</v>
+      </c>
+      <c r="E26" s="11">
+        <v>0</v>
+      </c>
+      <c r="F26" s="11">
+        <v>0</v>
+      </c>
+      <c r="G26" s="11">
+        <v>0</v>
+      </c>
+      <c r="H26" s="11">
+        <v>0</v>
+      </c>
+      <c r="I26" s="11">
+        <v>0</v>
+      </c>
+      <c r="J26" s="13">
+        <v>61074.11</v>
+      </c>
+      <c r="K26" s="11">
+        <v>0</v>
+      </c>
+      <c r="L26" s="11">
+        <v>0</v>
+      </c>
+      <c r="M26" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="11">
-        <v>0</v>
-      </c>
-      <c r="C25" s="11">
-        <v>0</v>
-      </c>
-      <c r="D25" s="11">
-        <v>0</v>
-      </c>
-      <c r="E25" s="11">
-        <v>0</v>
-      </c>
-      <c r="F25" s="11">
-        <v>0</v>
-      </c>
-      <c r="G25" s="11">
-        <v>0</v>
-      </c>
-      <c r="H25" s="11">
-        <v>0</v>
-      </c>
-      <c r="I25" s="11">
+      <c r="B27" s="11">
+        <v>0</v>
+      </c>
+      <c r="C27" s="11">
+        <v>0</v>
+      </c>
+      <c r="D27" s="11">
+        <v>0</v>
+      </c>
+      <c r="E27" s="11">
+        <v>0</v>
+      </c>
+      <c r="F27" s="11">
+        <v>0</v>
+      </c>
+      <c r="G27" s="11">
+        <v>0</v>
+      </c>
+      <c r="H27" s="11">
+        <v>0</v>
+      </c>
+      <c r="I27" s="11">
         <v>458.45</v>
       </c>
-      <c r="J25" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="15" t="s">
+      <c r="J27" s="13">
+        <v>0</v>
+      </c>
+      <c r="K27" s="11">
+        <v>0</v>
+      </c>
+      <c r="L27" s="11">
+        <v>0</v>
+      </c>
+      <c r="M27" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B28" s="11">
         <v>4281166.96</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C28" s="11">
         <v>3747207.29</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D28" s="11">
         <v>6809685.3600000003</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E28" s="11">
         <v>1448177.47</v>
       </c>
-      <c r="F26" s="11">
-        <v>0</v>
-      </c>
-      <c r="G26" s="11">
-        <v>0</v>
-      </c>
-      <c r="H26" s="11">
-        <v>0</v>
-      </c>
-      <c r="I26" s="11">
-        <v>0</v>
-      </c>
-      <c r="J26" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="15" t="s">
+      <c r="F28" s="11">
+        <v>0</v>
+      </c>
+      <c r="G28" s="11">
+        <v>0</v>
+      </c>
+      <c r="H28" s="11">
+        <v>0</v>
+      </c>
+      <c r="I28" s="11">
+        <v>0</v>
+      </c>
+      <c r="J28" s="13">
+        <v>0</v>
+      </c>
+      <c r="K28" s="11">
+        <v>0</v>
+      </c>
+      <c r="L28" s="11">
+        <v>0</v>
+      </c>
+      <c r="M28" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B29" s="11">
         <v>4012240.79</v>
       </c>
-      <c r="C27" s="11">
-        <v>0</v>
-      </c>
-      <c r="D27" s="11">
+      <c r="C29" s="11">
+        <v>0</v>
+      </c>
+      <c r="D29" s="11">
         <v>1408181.43</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E29" s="11">
         <v>1328326.5900000001</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F29" s="11">
         <v>924610.73</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G29" s="11">
         <v>2127763.9900000002</v>
       </c>
-      <c r="H27" s="11">
+      <c r="H29" s="11">
         <v>1043294.4099999999</v>
       </c>
-      <c r="I27" s="11">
+      <c r="I29" s="11">
         <v>1074133.02</v>
       </c>
-      <c r="J27" s="16">
+      <c r="J29" s="13">
         <v>1588430.42</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="15" t="s">
+      <c r="K29" s="11">
+        <v>2183591.42</v>
+      </c>
+      <c r="L29" s="11">
+        <v>462118.65</v>
+      </c>
+      <c r="M29" s="11">
+        <v>2360754.42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B30" s="11">
         <v>9815225.3399999999</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C30" s="11">
         <v>13881123.27</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D30" s="11">
         <v>22495029.68</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E30" s="11">
         <v>28628793.940000001</v>
       </c>
-      <c r="F28" s="11">
-        <v>23342961.530000001</v>
-      </c>
-      <c r="G28" s="11">
+      <c r="F30" s="11">
+        <v>23342961.529999997</v>
+      </c>
+      <c r="G30" s="11">
         <v>31473246.859999999</v>
       </c>
-      <c r="H28" s="11">
-        <v>46542036.569999993</v>
-      </c>
-      <c r="I28" s="11">
+      <c r="H30" s="11">
+        <v>46542036.57</v>
+      </c>
+      <c r="I30" s="11">
         <v>33808066.039999999</v>
       </c>
-      <c r="J28" s="16">
+      <c r="J30" s="13">
         <v>34386013.869999997</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="15" t="s">
+      <c r="K30" s="11">
+        <v>7615936.5199999996</v>
+      </c>
+      <c r="L30" s="11">
+        <v>8207514.9100000001</v>
+      </c>
+      <c r="M30" s="11">
+        <v>9560808.1600000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B31" s="11">
         <v>189058.33</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C31" s="11">
         <v>91661.73</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D31" s="11">
         <v>100353</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E31" s="11">
         <v>79883.25</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F31" s="11">
         <v>84044.9</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G31" s="11">
         <v>119563.92</v>
       </c>
-      <c r="H29" s="11">
+      <c r="H31" s="11">
         <v>56110.11</v>
       </c>
-      <c r="I29" s="11">
+      <c r="I31" s="11">
         <v>100268.26</v>
       </c>
-      <c r="J29" s="16">
-        <v>171603.65000000002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="15" t="s">
+      <c r="J31" s="13">
+        <v>160747.22</v>
+      </c>
+      <c r="K31" s="11">
+        <v>80416.34</v>
+      </c>
+      <c r="L31" s="11">
+        <v>243228.51</v>
+      </c>
+      <c r="M31" s="11">
+        <v>447363.48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="11">
-        <v>0</v>
-      </c>
-      <c r="C30" s="11">
-        <v>0</v>
-      </c>
-      <c r="D30" s="11">
-        <v>0</v>
-      </c>
-      <c r="E30" s="11">
-        <v>0</v>
-      </c>
-      <c r="F30" s="11">
-        <v>0</v>
-      </c>
-      <c r="G30" s="11">
-        <v>0</v>
-      </c>
-      <c r="H30" s="11">
+      <c r="B32" s="11">
+        <v>0</v>
+      </c>
+      <c r="C32" s="11">
+        <v>0</v>
+      </c>
+      <c r="D32" s="11">
+        <v>0</v>
+      </c>
+      <c r="E32" s="11">
+        <v>0</v>
+      </c>
+      <c r="F32" s="11">
+        <v>0</v>
+      </c>
+      <c r="G32" s="11">
+        <v>0</v>
+      </c>
+      <c r="H32" s="11">
         <v>1844.45</v>
       </c>
-      <c r="I30" s="11">
-        <v>0</v>
-      </c>
-      <c r="J30" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="15" t="s">
+      <c r="I32" s="11">
+        <v>0</v>
+      </c>
+      <c r="J32" s="13">
+        <v>0</v>
+      </c>
+      <c r="K32" s="11">
+        <v>0</v>
+      </c>
+      <c r="L32" s="11">
+        <v>0</v>
+      </c>
+      <c r="M32" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="11">
-        <v>71527934.799999863</v>
-      </c>
-      <c r="C31" s="11">
-        <v>81447629.030000091</v>
-      </c>
-      <c r="D31" s="11">
+      <c r="B33" s="11">
+        <v>71527934.799999997</v>
+      </c>
+      <c r="C33" s="11">
+        <v>81447629.03000012</v>
+      </c>
+      <c r="D33" s="11">
         <v>84391058.340000018</v>
       </c>
-      <c r="E31" s="11">
-        <v>133785484.37999992</v>
-      </c>
-      <c r="F31" s="11">
-        <v>68062183.250000075</v>
-      </c>
-      <c r="G31" s="11">
-        <v>50033378.120000027</v>
-      </c>
-      <c r="H31" s="11">
-        <v>72271448.740000054</v>
-      </c>
-      <c r="I31" s="11">
-        <v>69184415.359999955</v>
-      </c>
-      <c r="J31" s="16">
-        <v>53442792.079999998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="15" t="s">
+      <c r="E33" s="11">
+        <v>133785484.37999991</v>
+      </c>
+      <c r="F33" s="11">
+        <v>68083501.079999909</v>
+      </c>
+      <c r="G33" s="11">
+        <v>50033378.120000072</v>
+      </c>
+      <c r="H33" s="11">
+        <v>72271448.739999965</v>
+      </c>
+      <c r="I33" s="11">
+        <v>69184415.35999994</v>
+      </c>
+      <c r="J33" s="13">
+        <v>53439221.87999998</v>
+      </c>
+      <c r="K33" s="11">
+        <v>64323954.129999913</v>
+      </c>
+      <c r="L33" s="11">
+        <v>88375549.490000099</v>
+      </c>
+      <c r="M33" s="11">
+        <v>83224184.810000107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="11">
-        <v>20668.809999999998</v>
-      </c>
-      <c r="C32" s="11">
+      <c r="B34" s="11">
+        <v>20668.810000000001</v>
+      </c>
+      <c r="C34" s="11">
         <v>6450.01</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D34" s="11">
         <v>13805.759999999998</v>
       </c>
-      <c r="E32" s="11">
-        <v>0</v>
-      </c>
-      <c r="F32" s="11">
-        <v>0</v>
-      </c>
-      <c r="G32" s="11">
-        <v>0</v>
-      </c>
-      <c r="H32" s="11">
-        <v>0</v>
-      </c>
-      <c r="I32" s="11">
-        <v>0</v>
-      </c>
-      <c r="J32" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="15" t="s">
+      <c r="E34" s="11">
+        <v>0</v>
+      </c>
+      <c r="F34" s="11">
+        <v>0</v>
+      </c>
+      <c r="G34" s="11">
+        <v>0</v>
+      </c>
+      <c r="H34" s="11">
+        <v>0</v>
+      </c>
+      <c r="I34" s="11">
+        <v>0</v>
+      </c>
+      <c r="J34" s="13">
+        <v>0</v>
+      </c>
+      <c r="K34" s="11">
+        <v>0</v>
+      </c>
+      <c r="L34" s="11">
+        <v>0</v>
+      </c>
+      <c r="M34" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="11">
-        <v>2999488.0999999996</v>
-      </c>
-      <c r="C33" s="11">
-        <v>2588874.9600000004</v>
-      </c>
-      <c r="D33" s="11">
-        <v>4679899.6599999992</v>
-      </c>
-      <c r="E33" s="11">
-        <v>4583831.1700000018</v>
-      </c>
-      <c r="F33" s="11">
-        <v>3057290.06</v>
-      </c>
-      <c r="G33" s="11">
-        <v>3095730.120000001</v>
-      </c>
-      <c r="H33" s="11">
-        <v>8136699.8299999982</v>
-      </c>
-      <c r="I33" s="11">
-        <v>3358418.0000000005</v>
-      </c>
-      <c r="J33" s="16">
-        <v>4178851.899999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="15" t="s">
+      <c r="B35" s="11">
+        <v>2999488.0999999992</v>
+      </c>
+      <c r="C35" s="11">
+        <v>2588874.959999999</v>
+      </c>
+      <c r="D35" s="11">
+        <v>4679899.66</v>
+      </c>
+      <c r="E35" s="11">
+        <v>4583831.17</v>
+      </c>
+      <c r="F35" s="11">
+        <v>3057290.0599999996</v>
+      </c>
+      <c r="G35" s="11">
+        <v>3095730.12</v>
+      </c>
+      <c r="H35" s="11">
+        <v>8136699.8299999973</v>
+      </c>
+      <c r="I35" s="11">
+        <v>3358460.4100000006</v>
+      </c>
+      <c r="J35" s="13">
+        <v>4178851.9</v>
+      </c>
+      <c r="K35" s="11">
+        <v>3220894.3899999997</v>
+      </c>
+      <c r="L35" s="11">
+        <v>2556833.2699999996</v>
+      </c>
+      <c r="M35" s="11">
+        <v>8067303.9000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="11">
+        <v>0</v>
+      </c>
+      <c r="C36" s="11">
+        <v>0</v>
+      </c>
+      <c r="D36" s="11">
+        <v>0</v>
+      </c>
+      <c r="E36" s="11">
+        <v>0</v>
+      </c>
+      <c r="F36" s="11">
+        <v>0</v>
+      </c>
+      <c r="G36" s="11">
+        <v>0</v>
+      </c>
+      <c r="H36" s="11">
+        <v>0</v>
+      </c>
+      <c r="I36" s="11">
+        <v>0</v>
+      </c>
+      <c r="J36" s="13">
+        <v>0</v>
+      </c>
+      <c r="K36" s="11">
+        <v>0</v>
+      </c>
+      <c r="L36" s="11">
+        <v>0</v>
+      </c>
+      <c r="M36" s="11">
+        <v>74230.77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B34" s="11">
-        <v>47804260.070000023</v>
-      </c>
-      <c r="C34" s="11">
-        <v>51828346.340000071</v>
-      </c>
-      <c r="D34" s="11">
-        <v>21724316.190000001</v>
-      </c>
-      <c r="E34" s="11">
+      <c r="B37" s="11">
+        <v>47804260.069999978</v>
+      </c>
+      <c r="C37" s="11">
+        <v>51828346.340000086</v>
+      </c>
+      <c r="D37" s="11">
+        <v>21724316.190000005</v>
+      </c>
+      <c r="E37" s="11">
         <v>144141314.44999993</v>
       </c>
-      <c r="F34" s="11">
-        <v>43003984.940000005</v>
-      </c>
-      <c r="G34" s="11">
-        <v>64999714.869999968</v>
-      </c>
-      <c r="H34" s="11">
-        <v>112690895.99000008</v>
-      </c>
-      <c r="I34" s="11">
-        <v>108821502.25000003</v>
-      </c>
-      <c r="J34" s="16">
-        <v>64907397.840000048</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="15" t="s">
+      <c r="F37" s="11">
+        <v>43003984.940000027</v>
+      </c>
+      <c r="G37" s="11">
+        <v>64999714.870000012</v>
+      </c>
+      <c r="H37" s="11">
+        <v>112690895.98999992</v>
+      </c>
+      <c r="I37" s="11">
+        <v>108821502.25000006</v>
+      </c>
+      <c r="J37" s="13">
+        <v>64783930.030000009</v>
+      </c>
+      <c r="K37" s="11">
+        <v>108404701.79000005</v>
+      </c>
+      <c r="L37" s="11">
+        <v>40694121.879999951</v>
+      </c>
+      <c r="M37" s="11">
+        <v>100895001.00999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="11">
+        <v>0</v>
+      </c>
+      <c r="C38" s="11">
+        <v>0</v>
+      </c>
+      <c r="D38" s="11">
+        <v>0</v>
+      </c>
+      <c r="E38" s="11">
+        <v>0</v>
+      </c>
+      <c r="F38" s="11">
+        <v>0</v>
+      </c>
+      <c r="G38" s="11">
+        <v>0</v>
+      </c>
+      <c r="H38" s="11">
+        <v>0</v>
+      </c>
+      <c r="I38" s="11">
+        <v>0</v>
+      </c>
+      <c r="J38" s="13">
+        <v>0</v>
+      </c>
+      <c r="K38" s="11">
+        <v>0</v>
+      </c>
+      <c r="L38" s="11">
+        <v>0</v>
+      </c>
+      <c r="M38" s="11">
+        <v>7605.76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="11">
-        <v>0</v>
-      </c>
-      <c r="C35" s="11">
-        <v>0</v>
-      </c>
-      <c r="D35" s="11">
-        <v>0</v>
-      </c>
-      <c r="E35" s="11">
-        <v>0</v>
-      </c>
-      <c r="F35" s="11">
-        <v>0</v>
-      </c>
-      <c r="G35" s="11">
-        <v>0</v>
-      </c>
-      <c r="H35" s="11">
-        <v>0</v>
-      </c>
-      <c r="I35" s="11">
-        <v>0</v>
-      </c>
-      <c r="J35" s="16">
+      <c r="B39" s="11">
+        <v>0</v>
+      </c>
+      <c r="C39" s="11">
+        <v>0</v>
+      </c>
+      <c r="D39" s="11">
+        <v>0</v>
+      </c>
+      <c r="E39" s="11">
+        <v>0</v>
+      </c>
+      <c r="F39" s="11">
+        <v>0</v>
+      </c>
+      <c r="G39" s="11">
+        <v>0</v>
+      </c>
+      <c r="H39" s="11">
+        <v>0</v>
+      </c>
+      <c r="I39" s="11">
+        <v>0</v>
+      </c>
+      <c r="J39" s="13">
         <v>20387.09</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="15" t="s">
+      <c r="K39" s="11">
+        <v>0</v>
+      </c>
+      <c r="L39" s="11">
+        <v>0</v>
+      </c>
+      <c r="M39" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="11">
+      <c r="B40" s="11">
         <v>194966597.73000002</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C40" s="11">
         <v>113821950.76000002</v>
       </c>
-      <c r="D36" s="11">
-        <v>149321999.75999999</v>
-      </c>
-      <c r="E36" s="11">
-        <v>119881201.71999998</v>
-      </c>
-      <c r="F36" s="11">
+      <c r="D40" s="11">
+        <v>149321999.76000002</v>
+      </c>
+      <c r="E40" s="11">
+        <v>119881201.72</v>
+      </c>
+      <c r="F40" s="11">
         <v>93608218.770000011</v>
       </c>
-      <c r="G36" s="11">
+      <c r="G40" s="11">
         <v>121178409.16</v>
       </c>
-      <c r="H36" s="11">
-        <v>121195909.69000001</v>
-      </c>
-      <c r="I36" s="11">
-        <v>91777427.569999993</v>
-      </c>
-      <c r="J36" s="16">
-        <v>95758392.569999993</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="15" t="s">
+      <c r="H40" s="11">
+        <v>121195909.69</v>
+      </c>
+      <c r="I40" s="11">
+        <v>91838944.200000003</v>
+      </c>
+      <c r="J40" s="13">
+        <v>96997317.529999986</v>
+      </c>
+      <c r="K40" s="11">
+        <v>101734357.13</v>
+      </c>
+      <c r="L40" s="11">
+        <v>92021766.359999985</v>
+      </c>
+      <c r="M40" s="11">
+        <v>155948717.66999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="11">
+      <c r="B41" s="11">
         <v>678622.85</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C41" s="11">
         <v>226011.24</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D41" s="11">
         <v>236237.91</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E41" s="11">
         <v>95330.9</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F41" s="11">
         <v>324703.09000000003</v>
       </c>
-      <c r="G37" s="11">
+      <c r="G41" s="11">
         <v>62602.17</v>
       </c>
-      <c r="H37" s="11">
+      <c r="H41" s="11">
         <v>4675.26</v>
       </c>
-      <c r="I37" s="11">
-        <v>0</v>
-      </c>
-      <c r="J37" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="15" t="s">
+      <c r="I41" s="11">
+        <v>0</v>
+      </c>
+      <c r="J41" s="13">
+        <v>0</v>
+      </c>
+      <c r="K41" s="11">
+        <v>0</v>
+      </c>
+      <c r="L41" s="11">
+        <v>25320.639999999999</v>
+      </c>
+      <c r="M41" s="11">
+        <v>29339.97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="11">
-        <v>0</v>
-      </c>
-      <c r="C38" s="11">
-        <v>0</v>
-      </c>
-      <c r="D38" s="11">
+      <c r="B42" s="11">
+        <v>0</v>
+      </c>
+      <c r="C42" s="11">
+        <v>0</v>
+      </c>
+      <c r="D42" s="11">
         <v>7413.27</v>
       </c>
-      <c r="E38" s="11">
-        <v>0</v>
-      </c>
-      <c r="F38" s="11">
-        <v>0</v>
-      </c>
-      <c r="G38" s="11">
-        <v>0</v>
-      </c>
-      <c r="H38" s="11">
-        <v>0</v>
-      </c>
-      <c r="I38" s="11">
-        <v>0</v>
-      </c>
-      <c r="J38" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="15" t="s">
+      <c r="E42" s="11">
+        <v>0</v>
+      </c>
+      <c r="F42" s="11">
+        <v>0</v>
+      </c>
+      <c r="G42" s="11">
+        <v>0</v>
+      </c>
+      <c r="H42" s="11">
+        <v>0</v>
+      </c>
+      <c r="I42" s="11">
+        <v>0</v>
+      </c>
+      <c r="J42" s="13">
+        <v>0</v>
+      </c>
+      <c r="K42" s="11">
+        <v>0</v>
+      </c>
+      <c r="L42" s="11">
+        <v>0</v>
+      </c>
+      <c r="M42" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B39" s="11">
+      <c r="B43" s="11">
         <v>3723807.69</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C43" s="11">
         <v>3647642.1999999997</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D43" s="11">
         <v>2092294.73</v>
       </c>
-      <c r="E39" s="11">
-        <v>0</v>
-      </c>
-      <c r="F39" s="11">
+      <c r="E43" s="11">
+        <v>0</v>
+      </c>
+      <c r="F43" s="11">
         <v>2457956.84</v>
       </c>
-      <c r="G39" s="11">
+      <c r="G43" s="11">
         <v>1613373.8</v>
       </c>
-      <c r="H39" s="11">
+      <c r="H43" s="11">
         <v>3131555.1</v>
       </c>
-      <c r="I39" s="11">
-        <v>3633059.43</v>
-      </c>
-      <c r="J39" s="16">
+      <c r="I43" s="11">
+        <v>3391201.67</v>
+      </c>
+      <c r="J43" s="13">
         <v>6013986.6100000003</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="15" t="s">
+      <c r="K43" s="11">
+        <v>4675013.9000000004</v>
+      </c>
+      <c r="L43" s="11">
+        <v>3167035.5</v>
+      </c>
+      <c r="M43" s="11">
+        <v>3364875.5900000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="11">
+      <c r="B44" s="11">
         <v>63616.35</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C44" s="11">
         <v>92580.29</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D44" s="11">
         <v>275321</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E44" s="11">
         <v>124826.9</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F44" s="11">
         <v>92529.84</v>
       </c>
-      <c r="G40" s="11">
+      <c r="G44" s="11">
         <v>153961.97</v>
       </c>
-      <c r="H40" s="11">
-        <v>0</v>
-      </c>
-      <c r="I40" s="11">
-        <v>0</v>
-      </c>
-      <c r="J40" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="15" t="s">
+      <c r="H44" s="11">
+        <v>0</v>
+      </c>
+      <c r="I44" s="11">
+        <v>0</v>
+      </c>
+      <c r="J44" s="13">
+        <v>0</v>
+      </c>
+      <c r="K44" s="11">
+        <v>73994.880000000005</v>
+      </c>
+      <c r="L44" s="11">
+        <v>112149.84</v>
+      </c>
+      <c r="M44" s="11">
+        <v>141978.07999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="11">
+      <c r="B45" s="11">
         <v>2835712.52</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C45" s="11">
         <v>4590174.6100000003</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D45" s="11">
         <v>3136314.94</v>
       </c>
-      <c r="E41" s="11">
+      <c r="E45" s="11">
         <v>7967947.9199999999</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F45" s="11">
         <v>8251447.4999999991</v>
       </c>
-      <c r="G41" s="11">
-        <v>7719706.9600000009</v>
-      </c>
-      <c r="H41" s="11">
-        <v>13463151.169999998</v>
-      </c>
-      <c r="I41" s="11">
+      <c r="G45" s="11">
+        <v>7719706.96</v>
+      </c>
+      <c r="H45" s="11">
+        <v>13463151.17</v>
+      </c>
+      <c r="I45" s="11">
         <v>13381447.52</v>
       </c>
-      <c r="J41" s="16">
-        <v>19959853.379999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="15" t="s">
+      <c r="J45" s="13">
+        <v>19938114.349999998</v>
+      </c>
+      <c r="K45" s="11">
+        <v>6378358.1699999999</v>
+      </c>
+      <c r="L45" s="11">
+        <v>9935781.2299999986</v>
+      </c>
+      <c r="M45" s="11">
+        <v>2818660.41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B42" s="11">
+      <c r="B46" s="11">
         <v>9003325.5700000003</v>
       </c>
-      <c r="C42" s="11">
-        <v>8080022.3200000012</v>
-      </c>
-      <c r="D42" s="11">
+      <c r="C46" s="11">
+        <v>8080022.3200000022</v>
+      </c>
+      <c r="D46" s="11">
         <v>6799068.2999999998</v>
       </c>
-      <c r="E42" s="11">
-        <v>5557903.330000001</v>
-      </c>
-      <c r="F42" s="11">
+      <c r="E46" s="11">
+        <v>5557692.4300000006</v>
+      </c>
+      <c r="F46" s="11">
         <v>5962190.1900000013</v>
       </c>
-      <c r="G42" s="11">
-        <v>12760586.609999998</v>
-      </c>
-      <c r="H42" s="11">
-        <v>9558793.5000000037</v>
-      </c>
-      <c r="I42" s="11">
-        <v>5054197.83</v>
-      </c>
-      <c r="J42" s="16">
-        <v>6099110.629999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="15" t="s">
+      <c r="G46" s="11">
+        <v>12760536.60999999</v>
+      </c>
+      <c r="H46" s="11">
+        <v>9524633.4000000041</v>
+      </c>
+      <c r="I46" s="11">
+        <v>5053250.6300000008</v>
+      </c>
+      <c r="J46" s="13">
+        <v>6049509.0599999987</v>
+      </c>
+      <c r="K46" s="11">
+        <v>6983023.5299999984</v>
+      </c>
+      <c r="L46" s="11">
+        <v>6531707.2999999989</v>
+      </c>
+      <c r="M46" s="11">
+        <v>9010699.8000000007</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="11">
-        <v>169943715.16000003</v>
-      </c>
-      <c r="C43" s="11">
-        <v>141590621.7100001</v>
-      </c>
-      <c r="D43" s="11">
-        <v>166109556.38000014</v>
-      </c>
-      <c r="E43" s="11">
+      <c r="B47" s="11">
+        <v>169943715.16000006</v>
+      </c>
+      <c r="C47" s="11">
+        <v>141590621.70999992</v>
+      </c>
+      <c r="D47" s="11">
+        <v>166109556.38000008</v>
+      </c>
+      <c r="E47" s="11">
         <v>189243146.9000001</v>
       </c>
-      <c r="F43" s="11">
-        <v>175035335.46000007</v>
-      </c>
-      <c r="G43" s="11">
-        <v>205148046.11999995</v>
-      </c>
-      <c r="H43" s="11">
-        <v>206083294.59</v>
-      </c>
-      <c r="I43" s="11">
-        <v>269454569.37000018</v>
-      </c>
-      <c r="J43" s="16">
-        <v>338838054.25999981</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="15" t="s">
+      <c r="F47" s="11">
+        <v>175035335.45999989</v>
+      </c>
+      <c r="G47" s="11">
+        <v>205148046.11999971</v>
+      </c>
+      <c r="H47" s="11">
+        <v>206029851.65000013</v>
+      </c>
+      <c r="I47" s="11">
+        <v>270328357.57000005</v>
+      </c>
+      <c r="J47" s="13">
+        <v>348334491.85000032</v>
+      </c>
+      <c r="K47" s="11">
+        <v>220071584.54999983</v>
+      </c>
+      <c r="L47" s="11">
+        <v>211258166.08000007</v>
+      </c>
+      <c r="M47" s="11">
+        <v>142718365.2100001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="11">
+      <c r="B48" s="11">
         <v>28229545.309999999</v>
       </c>
-      <c r="C44" s="11">
-        <v>43495601.260000005</v>
-      </c>
-      <c r="D44" s="11">
+      <c r="C48" s="11">
+        <v>43495601.259999998</v>
+      </c>
+      <c r="D48" s="11">
         <v>41087720.899999999</v>
       </c>
-      <c r="E44" s="11">
-        <v>13278699.729999999</v>
-      </c>
-      <c r="F44" s="11">
+      <c r="E48" s="11">
+        <v>13278699.73</v>
+      </c>
+      <c r="F48" s="11">
         <v>21511609.739999998</v>
       </c>
-      <c r="G44" s="11">
-        <v>20762237.869999997</v>
-      </c>
-      <c r="H44" s="11">
-        <v>23245495.820000004</v>
-      </c>
-      <c r="I44" s="11">
-        <v>34112605.890000001</v>
-      </c>
-      <c r="J44" s="16">
-        <v>51419843.259999998</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="15" t="s">
+      <c r="G48" s="11">
+        <v>20761885.279999997</v>
+      </c>
+      <c r="H48" s="11">
+        <v>23263145.82</v>
+      </c>
+      <c r="I48" s="11">
+        <v>34112605.890000008</v>
+      </c>
+      <c r="J48" s="13">
+        <v>49647086.190000005</v>
+      </c>
+      <c r="K48" s="11">
+        <v>32013847.390000004</v>
+      </c>
+      <c r="L48" s="11">
+        <v>61573799.540000007</v>
+      </c>
+      <c r="M48" s="11">
+        <v>12798725.220000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="11">
-        <v>4338128.6100000003</v>
-      </c>
-      <c r="C45" s="11">
-        <v>6624361.8500000006</v>
-      </c>
-      <c r="D45" s="11">
-        <v>2448603.3600000003</v>
-      </c>
-      <c r="E45" s="11">
-        <v>6237955.7999999989</v>
-      </c>
-      <c r="F45" s="11">
-        <v>2771943.15</v>
-      </c>
-      <c r="G45" s="11">
-        <v>286049.67000000004</v>
-      </c>
-      <c r="H45" s="11">
-        <v>1499654.4699999997</v>
-      </c>
-      <c r="I45" s="11">
-        <v>2132009.9899999998</v>
-      </c>
-      <c r="J45" s="16">
-        <v>2964444.82</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="15" t="s">
+      <c r="B49" s="11">
+        <v>4338128.6100000013</v>
+      </c>
+      <c r="C49" s="11">
+        <v>6624361.8499999996</v>
+      </c>
+      <c r="D49" s="11">
+        <v>2448603.36</v>
+      </c>
+      <c r="E49" s="11">
+        <v>6237955.8000000007</v>
+      </c>
+      <c r="F49" s="11">
+        <v>2771943.1500000004</v>
+      </c>
+      <c r="G49" s="11">
+        <v>286049.67000000016</v>
+      </c>
+      <c r="H49" s="11">
+        <v>480162.89999999991</v>
+      </c>
+      <c r="I49" s="11">
+        <v>2109001.0300000003</v>
+      </c>
+      <c r="J49" s="13">
+        <v>1296811.9100000001</v>
+      </c>
+      <c r="K49" s="11">
+        <v>4905267.05</v>
+      </c>
+      <c r="L49" s="11">
+        <v>7072926.2900000019</v>
+      </c>
+      <c r="M49" s="11">
+        <v>4069117.9999999995</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="11">
-        <v>322703360.81</v>
-      </c>
-      <c r="C46" s="11">
+      <c r="B50" s="11">
+        <v>322703360.81000006</v>
+      </c>
+      <c r="C50" s="11">
         <v>181749311.02999997</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D50" s="11">
         <v>296423384.68000001</v>
       </c>
-      <c r="E46" s="11">
-        <v>134561007.60999998</v>
-      </c>
-      <c r="F46" s="11">
-        <v>103737531.57000002</v>
-      </c>
-      <c r="G46" s="11">
-        <v>174328062.76000002</v>
-      </c>
-      <c r="H46" s="11">
-        <v>273866350.85000002</v>
-      </c>
-      <c r="I46" s="11">
-        <v>118291677.81999999</v>
-      </c>
-      <c r="J46" s="16">
-        <v>171493388.14000002</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="15" t="s">
+      <c r="E50" s="11">
+        <v>134561007.61000001</v>
+      </c>
+      <c r="F50" s="11">
+        <v>103737531.56999999</v>
+      </c>
+      <c r="G50" s="11">
+        <v>174259282.86000004</v>
+      </c>
+      <c r="H50" s="11">
+        <v>273743656.29999995</v>
+      </c>
+      <c r="I50" s="11">
+        <v>118283824.89999999</v>
+      </c>
+      <c r="J50" s="13">
+        <v>171531565.06999999</v>
+      </c>
+      <c r="K50" s="11">
+        <v>190584830.78</v>
+      </c>
+      <c r="L50" s="11">
+        <v>58166132.969999999</v>
+      </c>
+      <c r="M50" s="11">
+        <v>177883351.51000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B47" s="11">
-        <v>1927838258.6100006</v>
-      </c>
-      <c r="C47" s="11">
-        <v>1600369289.0899973</v>
-      </c>
-      <c r="D47" s="11">
-        <v>1565249976.7899921</v>
-      </c>
-      <c r="E47" s="11">
-        <v>1680619738.5600052</v>
-      </c>
-      <c r="F47" s="11">
-        <v>1535716478.970001</v>
-      </c>
-      <c r="G47" s="11">
-        <v>1418390899.9400086</v>
-      </c>
-      <c r="H47" s="11">
-        <v>1745453187.8299952</v>
-      </c>
-      <c r="I47" s="11">
-        <v>1515152380.8699996</v>
-      </c>
-      <c r="J47" s="16">
-        <v>1497897803.5600114</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="15" t="s">
+      <c r="B51" s="11">
+        <v>1927857508.4000084</v>
+      </c>
+      <c r="C51" s="11">
+        <v>1600506650.1399922</v>
+      </c>
+      <c r="D51" s="11">
+        <v>1565249976.7899923</v>
+      </c>
+      <c r="E51" s="11">
+        <v>1680636895.3000031</v>
+      </c>
+      <c r="F51" s="11">
+        <v>1535716478.9700041</v>
+      </c>
+      <c r="G51" s="11">
+        <v>1418321211.3899999</v>
+      </c>
+      <c r="H51" s="11">
+        <v>1745516882.8299975</v>
+      </c>
+      <c r="I51" s="11">
+        <v>1514979932.5699954</v>
+      </c>
+      <c r="J51" s="13">
+        <v>1413383774.5200055</v>
+      </c>
+      <c r="K51" s="11">
+        <v>1603769621.0000086</v>
+      </c>
+      <c r="L51" s="11">
+        <v>1558581360.3900025</v>
+      </c>
+      <c r="M51" s="11">
+        <v>2271744466.0899987</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B48" s="11">
+      <c r="B52" s="11">
         <v>833612.75</v>
       </c>
-      <c r="C48" s="11">
-        <v>0</v>
-      </c>
-      <c r="D48" s="11">
-        <v>0</v>
-      </c>
-      <c r="E48" s="11">
-        <v>0</v>
-      </c>
-      <c r="F48" s="11">
-        <v>0</v>
-      </c>
-      <c r="G48" s="11">
-        <v>0</v>
-      </c>
-      <c r="H48" s="11">
-        <v>0</v>
-      </c>
-      <c r="I48" s="11">
-        <v>0</v>
-      </c>
-      <c r="J48" s="16">
+      <c r="C52" s="11">
+        <v>0</v>
+      </c>
+      <c r="D52" s="11">
+        <v>0</v>
+      </c>
+      <c r="E52" s="11">
+        <v>0</v>
+      </c>
+      <c r="F52" s="11">
+        <v>0</v>
+      </c>
+      <c r="G52" s="11">
+        <v>0</v>
+      </c>
+      <c r="H52" s="11">
+        <v>0</v>
+      </c>
+      <c r="I52" s="11">
+        <v>0</v>
+      </c>
+      <c r="J52" s="13">
         <v>4549.82</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="15" t="s">
+      <c r="K52" s="11">
+        <v>0</v>
+      </c>
+      <c r="L52" s="11">
+        <v>0</v>
+      </c>
+      <c r="M52" s="11">
+        <v>13041.779999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="11">
-        <v>0</v>
-      </c>
-      <c r="C49" s="11">
-        <v>0</v>
-      </c>
-      <c r="D49" s="11">
-        <v>0</v>
-      </c>
-      <c r="E49" s="11">
-        <v>0</v>
-      </c>
-      <c r="F49" s="11">
-        <v>0</v>
-      </c>
-      <c r="G49" s="11">
-        <v>0</v>
-      </c>
-      <c r="H49" s="11">
-        <v>141194.85999999999</v>
-      </c>
-      <c r="I49" s="11">
-        <v>0</v>
-      </c>
-      <c r="J49" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="15" t="s">
+      <c r="B53" s="11">
+        <v>0</v>
+      </c>
+      <c r="C53" s="11">
+        <v>0</v>
+      </c>
+      <c r="D53" s="11">
+        <v>0</v>
+      </c>
+      <c r="E53" s="11">
+        <v>0</v>
+      </c>
+      <c r="F53" s="11">
+        <v>0</v>
+      </c>
+      <c r="G53" s="11">
+        <v>0</v>
+      </c>
+      <c r="H53" s="11">
+        <v>141194.86000000002</v>
+      </c>
+      <c r="I53" s="11">
+        <v>0</v>
+      </c>
+      <c r="J53" s="13">
+        <v>0</v>
+      </c>
+      <c r="K53" s="11">
+        <v>33448.67</v>
+      </c>
+      <c r="L53" s="11">
+        <v>0</v>
+      </c>
+      <c r="M53" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B50" s="11">
+      <c r="B54" s="11">
         <v>15139.07</v>
       </c>
-      <c r="C50" s="11">
+      <c r="C54" s="11">
         <v>14707.31</v>
       </c>
-      <c r="D50" s="11">
-        <v>0</v>
-      </c>
-      <c r="E50" s="11">
-        <v>0</v>
-      </c>
-      <c r="F50" s="11">
-        <v>0</v>
-      </c>
-      <c r="G50" s="11">
-        <v>0</v>
-      </c>
-      <c r="H50" s="11">
-        <v>0</v>
-      </c>
-      <c r="I50" s="11">
-        <v>0</v>
-      </c>
-      <c r="J50" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="15" t="s">
+      <c r="D54" s="11">
+        <v>0</v>
+      </c>
+      <c r="E54" s="11">
+        <v>0</v>
+      </c>
+      <c r="F54" s="11">
+        <v>0</v>
+      </c>
+      <c r="G54" s="11">
+        <v>0</v>
+      </c>
+      <c r="H54" s="11">
+        <v>0</v>
+      </c>
+      <c r="I54" s="11">
+        <v>0</v>
+      </c>
+      <c r="J54" s="13">
+        <v>0</v>
+      </c>
+      <c r="K54" s="11">
+        <v>0</v>
+      </c>
+      <c r="L54" s="11">
+        <v>0</v>
+      </c>
+      <c r="M54" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B51" s="11">
-        <v>225885648.25999993</v>
-      </c>
-      <c r="C51" s="11">
-        <v>162081179.01000011</v>
-      </c>
-      <c r="D51" s="11">
-        <v>164267289.27000007</v>
-      </c>
-      <c r="E51" s="11">
-        <v>111484406.99000002</v>
-      </c>
-      <c r="F51" s="11">
-        <v>101999922.12</v>
-      </c>
-      <c r="G51" s="11">
-        <v>96747152.980000064</v>
-      </c>
-      <c r="H51" s="11">
-        <v>177921803.39999995</v>
-      </c>
-      <c r="I51" s="11">
-        <v>103474989.82999997</v>
-      </c>
-      <c r="J51" s="16">
-        <v>95419549.920000002</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="15" t="s">
+      <c r="B55" s="11">
+        <v>225885648.26000008</v>
+      </c>
+      <c r="C55" s="11">
+        <v>162367673.64999995</v>
+      </c>
+      <c r="D55" s="11">
+        <v>166235389.30000001</v>
+      </c>
+      <c r="E55" s="11">
+        <v>114884050.37999995</v>
+      </c>
+      <c r="F55" s="11">
+        <v>101999922.12000005</v>
+      </c>
+      <c r="G55" s="11">
+        <v>96747152.980000049</v>
+      </c>
+      <c r="H55" s="11">
+        <v>177070186.17000014</v>
+      </c>
+      <c r="I55" s="11">
+        <v>100407752.20999992</v>
+      </c>
+      <c r="J55" s="13">
+        <v>95563142.900000036</v>
+      </c>
+      <c r="K55" s="11">
+        <v>123576680.87000003</v>
+      </c>
+      <c r="L55" s="11">
+        <v>100923159.88999999</v>
+      </c>
+      <c r="M55" s="11">
+        <v>179817195.45999968</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B52" s="11">
-        <v>271856068.18000001</v>
-      </c>
-      <c r="C52" s="11">
+      <c r="B56" s="15">
+        <v>271856068.17999995</v>
+      </c>
+      <c r="C56" s="15">
         <v>194523430.49000001</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D56" s="15">
         <v>117137984.42999998</v>
       </c>
-      <c r="E52" s="11">
+      <c r="E56" s="15">
         <v>98386697.530000001</v>
       </c>
-      <c r="F52" s="11">
+      <c r="F56" s="15">
         <v>26051422.41</v>
       </c>
-      <c r="G52" s="11">
+      <c r="G56" s="15">
         <v>16249430.109999999</v>
       </c>
-      <c r="H52" s="11">
-        <v>19974020.16</v>
-      </c>
-      <c r="I52" s="11">
-        <v>98554428.200000003</v>
-      </c>
-      <c r="J52" s="16">
-        <v>198760066.67999998</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="15" t="s">
+      <c r="H56" s="15">
+        <v>20012650.82</v>
+      </c>
+      <c r="I56" s="15">
+        <v>98554428.199999973</v>
+      </c>
+      <c r="J56" s="16">
+        <v>212065528.69</v>
+      </c>
+      <c r="K56" s="11">
+        <v>176285204.74000001</v>
+      </c>
+      <c r="L56" s="11">
+        <v>218005675.72</v>
+      </c>
+      <c r="M56" s="11">
+        <v>158368520.72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B53" s="11">
+      <c r="B57" s="11">
         <v>5439284.9000000004</v>
       </c>
-      <c r="C53" s="11">
+      <c r="C57" s="11">
         <v>8316501.4400000004</v>
       </c>
-      <c r="D53" s="11">
+      <c r="D57" s="11">
         <v>328017.69</v>
       </c>
-      <c r="E53" s="11">
-        <v>0</v>
-      </c>
-      <c r="F53" s="11">
+      <c r="E57" s="11">
+        <v>0</v>
+      </c>
+      <c r="F57" s="11">
         <v>7469830.8399999999</v>
       </c>
-      <c r="G53" s="11">
+      <c r="G57" s="11">
         <v>2773767</v>
       </c>
-      <c r="H53" s="11">
+      <c r="H57" s="11">
         <v>8596457.7300000004</v>
       </c>
-      <c r="I53" s="11">
+      <c r="I57" s="11">
         <v>368891.9</v>
       </c>
-      <c r="J53" s="16">
+      <c r="J57" s="13">
         <v>3352682.63</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="15" t="s">
+      <c r="K57" s="11">
+        <v>0</v>
+      </c>
+      <c r="L57" s="11">
+        <v>4061466.59</v>
+      </c>
+      <c r="M57" s="11">
+        <v>441337.02</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B54" s="11">
+      <c r="B58" s="11">
         <v>602141808.66999972</v>
       </c>
-      <c r="C54" s="11">
-        <v>407813826.23999912</v>
-      </c>
-      <c r="D54" s="11">
-        <v>418377405.08000082</v>
-      </c>
-      <c r="E54" s="11">
-        <v>409751518.67000151</v>
-      </c>
-      <c r="F54" s="11">
-        <v>394456112.49999881</v>
-      </c>
-      <c r="G54" s="11">
-        <v>540120816.5999999</v>
-      </c>
-      <c r="H54" s="11">
-        <v>614207206.36000156</v>
-      </c>
-      <c r="I54" s="11">
-        <v>742542539.32999945</v>
-      </c>
-      <c r="J54" s="16">
-        <v>645969256.51000011</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="15" t="s">
+      <c r="C58" s="11">
+        <v>407813826.23999941</v>
+      </c>
+      <c r="D58" s="11">
+        <v>418377405.08000153</v>
+      </c>
+      <c r="E58" s="11">
+        <v>409751518.6700018</v>
+      </c>
+      <c r="F58" s="11">
+        <v>394458962.9400003</v>
+      </c>
+      <c r="G58" s="11">
+        <v>540166875.58999884</v>
+      </c>
+      <c r="H58" s="11">
+        <v>614207349.15999949</v>
+      </c>
+      <c r="I58" s="11">
+        <v>742178752.87999761</v>
+      </c>
+      <c r="J58" s="13">
+        <v>723132692.0899992</v>
+      </c>
+      <c r="K58" s="11">
+        <v>698027253.46000135</v>
+      </c>
+      <c r="L58" s="11">
+        <v>725386799.85999918</v>
+      </c>
+      <c r="M58" s="11">
+        <v>685516660.61000192</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B55" s="11">
+      <c r="B59" s="11">
         <v>45949451.939999998</v>
       </c>
-      <c r="C55" s="11">
-        <v>17473161.739999998</v>
-      </c>
-      <c r="D55" s="11">
+      <c r="C59" s="11">
+        <v>17473161.740000002</v>
+      </c>
+      <c r="D59" s="11">
         <v>26335843.240000002</v>
       </c>
-      <c r="E55" s="11">
+      <c r="E59" s="11">
         <v>28905013.239999998</v>
       </c>
-      <c r="F55" s="11">
+      <c r="F59" s="11">
         <v>28020558.059999999</v>
       </c>
-      <c r="G55" s="11">
-        <v>19861724.370000001</v>
-      </c>
-      <c r="H55" s="11">
-        <v>32798329.07</v>
-      </c>
-      <c r="I55" s="11">
-        <v>50879973.32</v>
-      </c>
-      <c r="J55" s="16">
-        <v>16954209.309999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="20" t="s">
+      <c r="G59" s="11">
+        <v>19861724.369999997</v>
+      </c>
+      <c r="H59" s="11">
+        <v>32830239.559999995</v>
+      </c>
+      <c r="I59" s="11">
+        <v>50873226.570000008</v>
+      </c>
+      <c r="J59" s="13">
+        <v>23693468.66</v>
+      </c>
+      <c r="K59" s="11">
+        <v>31402498.600000001</v>
+      </c>
+      <c r="L59" s="11">
+        <v>26794046.559999999</v>
+      </c>
+      <c r="M59" s="11">
+        <v>17354251.640000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B56" s="21">
-        <v>97769115.280000091</v>
-      </c>
-      <c r="C56" s="21">
-        <v>83318498.770000041</v>
-      </c>
-      <c r="D56" s="21">
-        <v>92686453.360000059</v>
-      </c>
-      <c r="E56" s="21">
-        <v>63586430.479999989</v>
-      </c>
-      <c r="F56" s="21">
-        <v>65056581.250000045</v>
-      </c>
-      <c r="G56" s="21">
-        <v>56284640.660000041</v>
-      </c>
-      <c r="H56" s="21">
-        <v>80547184.970000193</v>
-      </c>
-      <c r="I56" s="21">
-        <v>80688377.760000095</v>
-      </c>
-      <c r="J56" s="22">
-        <v>98446691.600000024</v>
+      <c r="B60" s="11">
+        <v>97229692.789999858</v>
+      </c>
+      <c r="C60" s="11">
+        <v>81155740.91000025</v>
+      </c>
+      <c r="D60" s="11">
+        <v>89633940.320000008</v>
+      </c>
+      <c r="E60" s="11">
+        <v>62930816.590000033</v>
+      </c>
+      <c r="F60" s="11">
+        <v>65037953.899999999</v>
+      </c>
+      <c r="G60" s="11">
+        <v>47228074.329999983</v>
+      </c>
+      <c r="H60" s="11">
+        <v>71528567.929999962</v>
+      </c>
+      <c r="I60" s="11">
+        <v>80676555.470000103</v>
+      </c>
+      <c r="J60" s="13">
+        <v>98261348.079999804</v>
+      </c>
+      <c r="K60" s="15">
+        <v>96510682.680000082</v>
+      </c>
+      <c r="L60" s="15">
+        <v>76529388.500000075</v>
+      </c>
+      <c r="M60" s="15">
+        <v>82544677.49000001</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
